--- a/database/fm-cur.xlsx
+++ b/database/fm-cur.xlsx
@@ -14,21 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
   <si>
     <t>시간</t>
   </si>
   <si>
-    <t>순환 IN</t>
-  </si>
-  <si>
-    <t>순환 OUT</t>
-  </si>
-  <si>
-    <t>심정 IN</t>
-  </si>
-  <si>
-    <t>심정 OUT</t>
+    <t>순환수(열교환 후)</t>
+  </si>
+  <si>
+    <t>순환수(열교환 전)</t>
+  </si>
+  <si>
+    <t>지하수 공급(열교환 전)</t>
+  </si>
+  <si>
+    <t>지하수 공급(열교환 후)</t>
   </si>
   <si>
     <t>Ton/hour</t>
@@ -37,40 +37,136 @@
     <t>lpm</t>
   </si>
   <si>
-    <t>2015-08-11 21:50</t>
-  </si>
-  <si>
-    <t>2015-08-11 21:23</t>
-  </si>
-  <si>
-    <t>2015-08-10 17:17</t>
-  </si>
-  <si>
-    <t>2015-08-10 17:12</t>
-  </si>
-  <si>
-    <t>2015-08-10 17:07</t>
-  </si>
-  <si>
-    <t>2015-08-10 16:49</t>
-  </si>
-  <si>
-    <t>2015-08-10 16:44</t>
-  </si>
-  <si>
-    <t>2015-08-10 16:38</t>
-  </si>
-  <si>
-    <t>2015-08-10 16:37</t>
-  </si>
-  <si>
-    <t>2015-08-10 16:36</t>
-  </si>
-  <si>
-    <t>2015-08-10 16:35</t>
-  </si>
-  <si>
-    <t>2015-08-10 13:25</t>
+    <t>온도</t>
+  </si>
+  <si>
+    <t>2015-09-07 10:20</t>
+  </si>
+  <si>
+    <t>2015-09-07 10:10</t>
+  </si>
+  <si>
+    <t>2015-09-07 10:00</t>
+  </si>
+  <si>
+    <t>2015-09-07 09:50</t>
+  </si>
+  <si>
+    <t>2015-09-07 09:40</t>
+  </si>
+  <si>
+    <t>2015-09-07 09:30</t>
+  </si>
+  <si>
+    <t>2015-09-07 09:20</t>
+  </si>
+  <si>
+    <t>2015-09-07 09:10</t>
+  </si>
+  <si>
+    <t>2015-09-07 09:00</t>
+  </si>
+  <si>
+    <t>2015-09-04 13:30</t>
+  </si>
+  <si>
+    <t>2015-09-04 13:20</t>
+  </si>
+  <si>
+    <t>2015-09-04 13:10</t>
+  </si>
+  <si>
+    <t>2015-09-04 13:00</t>
+  </si>
+  <si>
+    <t>2015-09-04 12:50</t>
+  </si>
+  <si>
+    <t>2015-09-04 12:40</t>
+  </si>
+  <si>
+    <t>2015-09-04 12:30</t>
+  </si>
+  <si>
+    <t>2015-09-04 12:20</t>
+  </si>
+  <si>
+    <t>2015-09-04 12:10</t>
+  </si>
+  <si>
+    <t>2015-09-04 12:00</t>
+  </si>
+  <si>
+    <t>2015-09-04 11:50</t>
+  </si>
+  <si>
+    <t>2015-09-04 11:40</t>
+  </si>
+  <si>
+    <t>2015-09-04 11:30</t>
+  </si>
+  <si>
+    <t>2015-09-03 15:50</t>
+  </si>
+  <si>
+    <t>2015-09-03 15:40</t>
+  </si>
+  <si>
+    <t>2015-09-03 15:30</t>
+  </si>
+  <si>
+    <t>2015-09-03 15:20</t>
+  </si>
+  <si>
+    <t>2015-09-03 15:10</t>
+  </si>
+  <si>
+    <t>2015-09-03 15:00</t>
+  </si>
+  <si>
+    <t>2015-09-03 14:50</t>
+  </si>
+  <si>
+    <t>2015-09-03 14:40</t>
+  </si>
+  <si>
+    <t>2015-09-03 14:30</t>
+  </si>
+  <si>
+    <t>2015-09-03 14:20</t>
+  </si>
+  <si>
+    <t>2015-09-03 14:10</t>
+  </si>
+  <si>
+    <t>2015-09-03 10:50</t>
+  </si>
+  <si>
+    <t>2015-09-03 10:40</t>
+  </si>
+  <si>
+    <t>2015-09-03 10:30</t>
+  </si>
+  <si>
+    <t>2015-09-03 10:20</t>
+  </si>
+  <si>
+    <t>2015-09-03 10:10</t>
+  </si>
+  <si>
+    <t>2015-09-01 11:10</t>
+  </si>
+  <si>
+    <t>2015-09-01 11:00</t>
+  </si>
+  <si>
+    <t>2015-09-01 10:50</t>
+  </si>
+  <si>
+    <t>2015-09-01 10:40</t>
+  </si>
+  <si>
+    <t>2015-09-01 10:30</t>
   </si>
 </sst>
 </file>
@@ -419,17 +515,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:M45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="10" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -437,20 +532,24 @@
         <v>1</v>
       </c>
       <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="1"/>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>5</v>
@@ -459,16 +558,16 @@
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>5</v>
@@ -476,10 +575,22 @@
       <c r="I2" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="3">
         <v>0</v>
@@ -488,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="3">
-        <v>0</v>
+        <v>21.32</v>
       </c>
       <c r="E3" s="3">
         <v>0</v>
@@ -497,18 +608,30 @@
         <v>0</v>
       </c>
       <c r="G3" s="3">
-        <v>0</v>
+        <v>21.05</v>
       </c>
       <c r="H3" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I3" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>50.01</v>
+      </c>
+      <c r="J3" s="3">
+        <v>20.79</v>
+      </c>
+      <c r="K3" s="3">
+        <v>3</v>
+      </c>
+      <c r="L3" s="3">
+        <v>50.01</v>
+      </c>
+      <c r="M3" s="3">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" s="3">
         <v>0</v>
@@ -517,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="3">
-        <v>0</v>
+        <v>21.32</v>
       </c>
       <c r="E4" s="3">
         <v>0</v>
@@ -526,18 +649,30 @@
         <v>0</v>
       </c>
       <c r="G4" s="3">
-        <v>0</v>
+        <v>21.05</v>
       </c>
       <c r="H4" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I4" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>50.01</v>
+      </c>
+      <c r="J4" s="3">
+        <v>20.79</v>
+      </c>
+      <c r="K4" s="3">
+        <v>3</v>
+      </c>
+      <c r="L4" s="3">
+        <v>50.01</v>
+      </c>
+      <c r="M4" s="3">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -546,7 +681,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="3">
-        <v>0</v>
+        <v>21.32</v>
       </c>
       <c r="E5" s="3">
         <v>0</v>
@@ -555,18 +690,30 @@
         <v>0</v>
       </c>
       <c r="G5" s="3">
-        <v>0</v>
+        <v>21.05</v>
       </c>
       <c r="H5" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I5" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>50.01</v>
+      </c>
+      <c r="J5" s="3">
+        <v>20.79</v>
+      </c>
+      <c r="K5" s="3">
+        <v>3</v>
+      </c>
+      <c r="L5" s="3">
+        <v>50.01</v>
+      </c>
+      <c r="M5" s="3">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" s="3">
         <v>0</v>
@@ -575,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="3">
-        <v>0</v>
+        <v>21.32</v>
       </c>
       <c r="E6" s="3">
         <v>0</v>
@@ -584,18 +731,30 @@
         <v>0</v>
       </c>
       <c r="G6" s="3">
-        <v>0</v>
+        <v>21.05</v>
       </c>
       <c r="H6" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I6" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>50.01</v>
+      </c>
+      <c r="J6" s="3">
+        <v>20.79</v>
+      </c>
+      <c r="K6" s="3">
+        <v>3</v>
+      </c>
+      <c r="L6" s="3">
+        <v>50.01</v>
+      </c>
+      <c r="M6" s="3">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="3">
         <v>0</v>
@@ -604,7 +763,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="3">
-        <v>0</v>
+        <v>21.32</v>
       </c>
       <c r="E7" s="3">
         <v>0</v>
@@ -613,18 +772,30 @@
         <v>0</v>
       </c>
       <c r="G7" s="3">
-        <v>0</v>
+        <v>21.05</v>
       </c>
       <c r="H7" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I7" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>50.01</v>
+      </c>
+      <c r="J7" s="3">
+        <v>20.79</v>
+      </c>
+      <c r="K7" s="3">
+        <v>3</v>
+      </c>
+      <c r="L7" s="3">
+        <v>50.01</v>
+      </c>
+      <c r="M7" s="3">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="3">
         <v>0</v>
@@ -633,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="3">
-        <v>0</v>
+        <v>21.32</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
@@ -642,18 +813,30 @@
         <v>0</v>
       </c>
       <c r="G8" s="3">
-        <v>0</v>
+        <v>21.05</v>
       </c>
       <c r="H8" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>50.01</v>
+      </c>
+      <c r="J8" s="3">
+        <v>20.79</v>
+      </c>
+      <c r="K8" s="3">
+        <v>3</v>
+      </c>
+      <c r="L8" s="3">
+        <v>50.01</v>
+      </c>
+      <c r="M8" s="3">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" s="3">
         <v>0</v>
@@ -662,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="3">
-        <v>0</v>
+        <v>21.32</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
@@ -671,18 +854,30 @@
         <v>0</v>
       </c>
       <c r="G9" s="3">
-        <v>0</v>
+        <v>21.05</v>
       </c>
       <c r="H9" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>50.01</v>
+      </c>
+      <c r="J9" s="3">
+        <v>20.79</v>
+      </c>
+      <c r="K9" s="3">
+        <v>3</v>
+      </c>
+      <c r="L9" s="3">
+        <v>50.01</v>
+      </c>
+      <c r="M9" s="3">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" s="3">
         <v>0</v>
@@ -691,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="3">
-        <v>0</v>
+        <v>21.32</v>
       </c>
       <c r="E10" s="3">
         <v>0</v>
@@ -700,18 +895,30 @@
         <v>0</v>
       </c>
       <c r="G10" s="3">
-        <v>0</v>
+        <v>21.05</v>
       </c>
       <c r="H10" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>50.01</v>
+      </c>
+      <c r="J10" s="3">
+        <v>20.79</v>
+      </c>
+      <c r="K10" s="3">
+        <v>3</v>
+      </c>
+      <c r="L10" s="3">
+        <v>50.01</v>
+      </c>
+      <c r="M10" s="3">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" s="3">
         <v>0</v>
@@ -720,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="3">
-        <v>0</v>
+        <v>21.32</v>
       </c>
       <c r="E11" s="3">
         <v>0</v>
@@ -729,18 +936,30 @@
         <v>0</v>
       </c>
       <c r="G11" s="3">
-        <v>0</v>
+        <v>21.05</v>
       </c>
       <c r="H11" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I11" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>50.01</v>
+      </c>
+      <c r="J11" s="3">
+        <v>20.79</v>
+      </c>
+      <c r="K11" s="3">
+        <v>3</v>
+      </c>
+      <c r="L11" s="3">
+        <v>50.01</v>
+      </c>
+      <c r="M11" s="3">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12" s="3">
         <v>0</v>
@@ -749,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="3">
-        <v>0</v>
+        <v>21.32</v>
       </c>
       <c r="E12" s="3">
         <v>0</v>
@@ -758,18 +977,30 @@
         <v>0</v>
       </c>
       <c r="G12" s="3">
-        <v>0</v>
+        <v>21.05</v>
       </c>
       <c r="H12" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>50.01</v>
+      </c>
+      <c r="J12" s="3">
+        <v>20.79</v>
+      </c>
+      <c r="K12" s="3">
+        <v>3</v>
+      </c>
+      <c r="L12" s="3">
+        <v>50.01</v>
+      </c>
+      <c r="M12" s="3">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13" s="3">
         <v>0</v>
@@ -778,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="3">
-        <v>0</v>
+        <v>21.32</v>
       </c>
       <c r="E13" s="3">
         <v>0</v>
@@ -787,18 +1018,30 @@
         <v>0</v>
       </c>
       <c r="G13" s="3">
-        <v>0</v>
+        <v>21.05</v>
       </c>
       <c r="H13" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I13" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>50.01</v>
+      </c>
+      <c r="J13" s="3">
+        <v>20.79</v>
+      </c>
+      <c r="K13" s="3">
+        <v>3</v>
+      </c>
+      <c r="L13" s="3">
+        <v>50.01</v>
+      </c>
+      <c r="M13" s="3">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14" s="3">
         <v>0</v>
@@ -807,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>21.32</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -816,22 +1059,1305 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>21.05</v>
       </c>
       <c r="H14" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I14" s="3">
-        <v>0</v>
+        <v>50.01</v>
+      </c>
+      <c r="J14" s="3">
+        <v>20.79</v>
+      </c>
+      <c r="K14" s="3">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3">
+        <v>50.01</v>
+      </c>
+      <c r="M14" s="3">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0</v>
+      </c>
+      <c r="D15" s="3">
+        <v>21.32</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>21.05</v>
+      </c>
+      <c r="H15" s="3">
+        <v>3</v>
+      </c>
+      <c r="I15" s="3">
+        <v>50.01</v>
+      </c>
+      <c r="J15" s="3">
+        <v>20.79</v>
+      </c>
+      <c r="K15" s="3">
+        <v>3</v>
+      </c>
+      <c r="L15" s="3">
+        <v>50.01</v>
+      </c>
+      <c r="M15" s="3">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0</v>
+      </c>
+      <c r="D16" s="3">
+        <v>21.32</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3">
+        <v>21.05</v>
+      </c>
+      <c r="H16" s="3">
+        <v>3</v>
+      </c>
+      <c r="I16" s="3">
+        <v>50.01</v>
+      </c>
+      <c r="J16" s="3">
+        <v>20.79</v>
+      </c>
+      <c r="K16" s="3">
+        <v>3</v>
+      </c>
+      <c r="L16" s="3">
+        <v>50.01</v>
+      </c>
+      <c r="M16" s="3">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0</v>
+      </c>
+      <c r="D17" s="3">
+        <v>21.32</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
+        <v>21.05</v>
+      </c>
+      <c r="H17" s="3">
+        <v>3</v>
+      </c>
+      <c r="I17" s="3">
+        <v>50.01</v>
+      </c>
+      <c r="J17" s="3">
+        <v>20.79</v>
+      </c>
+      <c r="K17" s="3">
+        <v>3</v>
+      </c>
+      <c r="L17" s="3">
+        <v>50.01</v>
+      </c>
+      <c r="M17" s="3">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0</v>
+      </c>
+      <c r="D18" s="3">
+        <v>21.32</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
+        <v>21.05</v>
+      </c>
+      <c r="H18" s="3">
+        <v>3</v>
+      </c>
+      <c r="I18" s="3">
+        <v>50.01</v>
+      </c>
+      <c r="J18" s="3">
+        <v>20.79</v>
+      </c>
+      <c r="K18" s="3">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3">
+        <v>50.01</v>
+      </c>
+      <c r="M18" s="3">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0</v>
+      </c>
+      <c r="D19" s="3">
+        <v>21.32</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3">
+        <v>21.05</v>
+      </c>
+      <c r="H19" s="3">
+        <v>3</v>
+      </c>
+      <c r="I19" s="3">
+        <v>50.01</v>
+      </c>
+      <c r="J19" s="3">
+        <v>20.79</v>
+      </c>
+      <c r="K19" s="3">
+        <v>3</v>
+      </c>
+      <c r="L19" s="3">
+        <v>50.01</v>
+      </c>
+      <c r="M19" s="3">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0</v>
+      </c>
+      <c r="D20" s="3">
+        <v>21.32</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>21.05</v>
+      </c>
+      <c r="H20" s="3">
+        <v>3</v>
+      </c>
+      <c r="I20" s="3">
+        <v>50.01</v>
+      </c>
+      <c r="J20" s="3">
+        <v>20.79</v>
+      </c>
+      <c r="K20" s="3">
+        <v>3</v>
+      </c>
+      <c r="L20" s="3">
+        <v>50.01</v>
+      </c>
+      <c r="M20" s="3">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0</v>
+      </c>
+      <c r="D21" s="3">
+        <v>21.32</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
+        <v>21.05</v>
+      </c>
+      <c r="H21" s="3">
+        <v>3</v>
+      </c>
+      <c r="I21" s="3">
+        <v>50.01</v>
+      </c>
+      <c r="J21" s="3">
+        <v>20.79</v>
+      </c>
+      <c r="K21" s="3">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3">
+        <v>50.01</v>
+      </c>
+      <c r="M21" s="3">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0</v>
+      </c>
+      <c r="D22" s="3">
+        <v>21.32</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>21.05</v>
+      </c>
+      <c r="H22" s="3">
+        <v>3</v>
+      </c>
+      <c r="I22" s="3">
+        <v>50.01</v>
+      </c>
+      <c r="J22" s="3">
+        <v>20.79</v>
+      </c>
+      <c r="K22" s="3">
+        <v>3</v>
+      </c>
+      <c r="L22" s="3">
+        <v>50.01</v>
+      </c>
+      <c r="M22" s="3">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="3">
+        <v>0</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0</v>
+      </c>
+      <c r="D23" s="3">
+        <v>21.32</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
+        <v>21.05</v>
+      </c>
+      <c r="H23" s="3">
+        <v>3</v>
+      </c>
+      <c r="I23" s="3">
+        <v>50.01</v>
+      </c>
+      <c r="J23" s="3">
+        <v>20.79</v>
+      </c>
+      <c r="K23" s="3">
+        <v>3</v>
+      </c>
+      <c r="L23" s="3">
+        <v>50.01</v>
+      </c>
+      <c r="M23" s="3">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="3">
+        <v>0</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0</v>
+      </c>
+      <c r="D24" s="3">
+        <v>21.32</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>21.05</v>
+      </c>
+      <c r="H24" s="3">
+        <v>3</v>
+      </c>
+      <c r="I24" s="3">
+        <v>50.01</v>
+      </c>
+      <c r="J24" s="3">
+        <v>20.79</v>
+      </c>
+      <c r="K24" s="3">
+        <v>3</v>
+      </c>
+      <c r="L24" s="3">
+        <v>50.01</v>
+      </c>
+      <c r="M24" s="3">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="3">
+        <v>0</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0</v>
+      </c>
+      <c r="D25" s="3">
+        <v>22.84</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0</v>
+      </c>
+      <c r="G25" s="3">
+        <v>22.8</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0</v>
+      </c>
+      <c r="I25" s="3">
+        <v>0</v>
+      </c>
+      <c r="J25" s="3">
+        <v>22.56</v>
+      </c>
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>22.43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="3">
+        <v>0</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0</v>
+      </c>
+      <c r="D26" s="3">
+        <v>22.84</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
+        <v>22.8</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
+        <v>22.56</v>
+      </c>
+      <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
+        <v>22.43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="3">
+        <v>0</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0</v>
+      </c>
+      <c r="D27" s="3">
+        <v>22.84</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
+        <v>22.8</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
+        <v>22.56</v>
+      </c>
+      <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
+        <v>22.43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="3">
+        <v>0</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0</v>
+      </c>
+      <c r="D28" s="3">
+        <v>22.84</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0</v>
+      </c>
+      <c r="G28" s="3">
+        <v>22.8</v>
+      </c>
+      <c r="H28" s="3">
+        <v>0</v>
+      </c>
+      <c r="I28" s="3">
+        <v>0</v>
+      </c>
+      <c r="J28" s="3">
+        <v>22.56</v>
+      </c>
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>22.43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="3">
+        <v>0</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0</v>
+      </c>
+      <c r="D29" s="3">
+        <v>22.84</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>22.8</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>22.56</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>22.43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="3">
+        <v>0</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0</v>
+      </c>
+      <c r="D30" s="3">
+        <v>22.84</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0</v>
+      </c>
+      <c r="G30" s="3">
+        <v>22.8</v>
+      </c>
+      <c r="H30" s="3">
+        <v>0</v>
+      </c>
+      <c r="I30" s="3">
+        <v>0</v>
+      </c>
+      <c r="J30" s="3">
+        <v>22.56</v>
+      </c>
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>22.43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="3">
+        <v>0</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0</v>
+      </c>
+      <c r="D31" s="3">
+        <v>22.84</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0</v>
+      </c>
+      <c r="F31" s="3">
+        <v>0</v>
+      </c>
+      <c r="G31" s="3">
+        <v>22.8</v>
+      </c>
+      <c r="H31" s="3">
+        <v>0</v>
+      </c>
+      <c r="I31" s="3">
+        <v>0</v>
+      </c>
+      <c r="J31" s="3">
+        <v>22.56</v>
+      </c>
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>22.43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="3">
+        <v>0</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0</v>
+      </c>
+      <c r="D32" s="3">
+        <v>22.84</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>22.8</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>22.56</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>22.43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="3">
+        <v>0</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0</v>
+      </c>
+      <c r="D33" s="3">
+        <v>22.84</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
+        <v>22.8</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
+        <v>22.56</v>
+      </c>
+      <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
+        <v>22.43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="3">
+        <v>0</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0</v>
+      </c>
+      <c r="D34" s="3">
+        <v>22.84</v>
+      </c>
+      <c r="E34" s="3">
+        <v>0</v>
+      </c>
+      <c r="F34" s="3">
+        <v>0</v>
+      </c>
+      <c r="G34" s="3">
+        <v>22.8</v>
+      </c>
+      <c r="H34" s="3">
+        <v>0</v>
+      </c>
+      <c r="I34" s="3">
+        <v>0</v>
+      </c>
+      <c r="J34" s="3">
+        <v>22.56</v>
+      </c>
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>22.43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="3">
+        <v>0</v>
+      </c>
+      <c r="C35" s="3">
+        <v>0</v>
+      </c>
+      <c r="D35" s="3">
+        <v>22.84</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
+        <v>22.8</v>
+      </c>
+      <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
+        <v>22.56</v>
+      </c>
+      <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
+        <v>22.43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="3">
+        <v>0</v>
+      </c>
+      <c r="C36" s="3">
+        <v>0</v>
+      </c>
+      <c r="D36" s="3">
+        <v>22.84</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0</v>
+      </c>
+      <c r="F36" s="3">
+        <v>0</v>
+      </c>
+      <c r="G36" s="3">
+        <v>22.8</v>
+      </c>
+      <c r="H36" s="3">
+        <v>0</v>
+      </c>
+      <c r="I36" s="3">
+        <v>0</v>
+      </c>
+      <c r="J36" s="3">
+        <v>22.56</v>
+      </c>
+      <c r="K36" s="3">
+        <v>0</v>
+      </c>
+      <c r="L36" s="3">
+        <v>0</v>
+      </c>
+      <c r="M36" s="3">
+        <v>22.43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" s="3">
+        <v>0</v>
+      </c>
+      <c r="C37" s="3">
+        <v>0</v>
+      </c>
+      <c r="D37" s="3">
+        <v>22.84</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0</v>
+      </c>
+      <c r="F37" s="3">
+        <v>0</v>
+      </c>
+      <c r="G37" s="3">
+        <v>22.8</v>
+      </c>
+      <c r="H37" s="3">
+        <v>0</v>
+      </c>
+      <c r="I37" s="3">
+        <v>0</v>
+      </c>
+      <c r="J37" s="3">
+        <v>22.56</v>
+      </c>
+      <c r="K37" s="3">
+        <v>0</v>
+      </c>
+      <c r="L37" s="3">
+        <v>0</v>
+      </c>
+      <c r="M37" s="3">
+        <v>22.43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="3">
+        <v>0</v>
+      </c>
+      <c r="C38" s="3">
+        <v>0</v>
+      </c>
+      <c r="D38" s="3">
+        <v>22.84</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0</v>
+      </c>
+      <c r="F38" s="3">
+        <v>0</v>
+      </c>
+      <c r="G38" s="3">
+        <v>22.8</v>
+      </c>
+      <c r="H38" s="3">
+        <v>0</v>
+      </c>
+      <c r="I38" s="3">
+        <v>0</v>
+      </c>
+      <c r="J38" s="3">
+        <v>22.56</v>
+      </c>
+      <c r="K38" s="3">
+        <v>0</v>
+      </c>
+      <c r="L38" s="3">
+        <v>0</v>
+      </c>
+      <c r="M38" s="3">
+        <v>22.43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" s="3">
+        <v>0</v>
+      </c>
+      <c r="C39" s="3">
+        <v>0</v>
+      </c>
+      <c r="D39" s="3">
+        <v>22.84</v>
+      </c>
+      <c r="E39" s="3">
+        <v>0</v>
+      </c>
+      <c r="F39" s="3">
+        <v>0</v>
+      </c>
+      <c r="G39" s="3">
+        <v>22.8</v>
+      </c>
+      <c r="H39" s="3">
+        <v>0</v>
+      </c>
+      <c r="I39" s="3">
+        <v>0</v>
+      </c>
+      <c r="J39" s="3">
+        <v>22.56</v>
+      </c>
+      <c r="K39" s="3">
+        <v>0</v>
+      </c>
+      <c r="L39" s="3">
+        <v>0</v>
+      </c>
+      <c r="M39" s="3">
+        <v>22.43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" s="3">
+        <v>0</v>
+      </c>
+      <c r="C40" s="3">
+        <v>0</v>
+      </c>
+      <c r="D40" s="3">
+        <v>22.84</v>
+      </c>
+      <c r="E40" s="3">
+        <v>0</v>
+      </c>
+      <c r="F40" s="3">
+        <v>0</v>
+      </c>
+      <c r="G40" s="3">
+        <v>22.8</v>
+      </c>
+      <c r="H40" s="3">
+        <v>0</v>
+      </c>
+      <c r="I40" s="3">
+        <v>0</v>
+      </c>
+      <c r="J40" s="3">
+        <v>22.56</v>
+      </c>
+      <c r="K40" s="3">
+        <v>0</v>
+      </c>
+      <c r="L40" s="3">
+        <v>0</v>
+      </c>
+      <c r="M40" s="3">
+        <v>22.43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" s="3">
+        <v>0</v>
+      </c>
+      <c r="C41" s="3">
+        <v>0</v>
+      </c>
+      <c r="D41" s="3">
+        <v>22.84</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
+        <v>22.8</v>
+      </c>
+      <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
+        <v>22.56</v>
+      </c>
+      <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
+        <v>22.43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" s="3">
+        <v>0</v>
+      </c>
+      <c r="C42" s="3">
+        <v>0</v>
+      </c>
+      <c r="D42" s="3">
+        <v>22.84</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>22.8</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
+        <v>22.56</v>
+      </c>
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>22.43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="3">
+        <v>0</v>
+      </c>
+      <c r="C43" s="3">
+        <v>0</v>
+      </c>
+      <c r="D43" s="3">
+        <v>22.84</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
+        <v>22.8</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
+        <v>22.56</v>
+      </c>
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>22.43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" s="3">
+        <v>0</v>
+      </c>
+      <c r="C44" s="3">
+        <v>0</v>
+      </c>
+      <c r="D44" s="3">
+        <v>22.84</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
+        <v>22.8</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0</v>
+      </c>
+      <c r="J44" s="3">
+        <v>22.56</v>
+      </c>
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>22.43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" s="3">
+        <v>0</v>
+      </c>
+      <c r="C45" s="3">
+        <v>0</v>
+      </c>
+      <c r="D45" s="3">
+        <v>22.84</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
+        <v>22.8</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
+        <v>22.56</v>
+      </c>
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
+        <v>22.43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/database/fm-cur.xlsx
+++ b/database/fm-cur.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="95">
   <si>
     <t>시간</t>
   </si>
@@ -40,19 +40,265 @@
     <t>온도</t>
   </si>
   <si>
-    <t>2015-09-09 11:10</t>
-  </si>
-  <si>
-    <t>2015-09-09 11:00</t>
-  </si>
-  <si>
-    <t>2015-09-09 10:50</t>
-  </si>
-  <si>
-    <t>2015-09-09 10:40</t>
-  </si>
-  <si>
-    <t>2015-09-09 10:20</t>
+    <t>2015-12-01 15:00:02.426</t>
+  </si>
+  <si>
+    <t>2015-12-01 14:50:03.088</t>
+  </si>
+  <si>
+    <t>2015-12-01 14:40:02.331</t>
+  </si>
+  <si>
+    <t>2015-12-01 14:30:02.209</t>
+  </si>
+  <si>
+    <t>2015-12-01 14:20:04.087</t>
+  </si>
+  <si>
+    <t>2015-12-01 14:10:01.498</t>
+  </si>
+  <si>
+    <t>2015-12-01 11:50:02.157</t>
+  </si>
+  <si>
+    <t>2015-12-01 11:40:02.103</t>
+  </si>
+  <si>
+    <t>2015-12-01 11:30:03.467</t>
+  </si>
+  <si>
+    <t>2015-12-01 11:20:03.853</t>
+  </si>
+  <si>
+    <t>2015-12-01 11:10:02.624</t>
+  </si>
+  <si>
+    <t>2015-11-30 13:10:04.374</t>
+  </si>
+  <si>
+    <t>2015-11-23 10:30:03.188</t>
+  </si>
+  <si>
+    <t>2015-11-23 10:20:01.918</t>
+  </si>
+  <si>
+    <t>2015-11-23 10:10:02.690</t>
+  </si>
+  <si>
+    <t>2015-11-23 10:00:02.066</t>
+  </si>
+  <si>
+    <t>2015-11-23 09:50:01.159</t>
+  </si>
+  <si>
+    <t>2015-11-23 09:40:02.979</t>
+  </si>
+  <si>
+    <t>2015-11-23 09:30:01.393</t>
+  </si>
+  <si>
+    <t>2015-11-23 09:20:01.829</t>
+  </si>
+  <si>
+    <t>2015-11-20 18:10:01.505</t>
+  </si>
+  <si>
+    <t>2015-11-20 18:00:04.151</t>
+  </si>
+  <si>
+    <t>2015-11-20 17:50:04.109</t>
+  </si>
+  <si>
+    <t>2015-11-20 17:40:04.302</t>
+  </si>
+  <si>
+    <t>2015-11-20 17:20:04.050</t>
+  </si>
+  <si>
+    <t>2015-11-20 17:10:04.373</t>
+  </si>
+  <si>
+    <t>2015-11-20 17:00:01.850</t>
+  </si>
+  <si>
+    <t>2015-11-20 16:50:01.376</t>
+  </si>
+  <si>
+    <t>2015-11-20 16:40:03.108</t>
+  </si>
+  <si>
+    <t>2015-11-20 16:30:04.238</t>
+  </si>
+  <si>
+    <t>2015-11-20 16:20:03.594</t>
+  </si>
+  <si>
+    <t>2015-11-20 16:10:02.908</t>
+  </si>
+  <si>
+    <t>2015-11-20 16:00:02.537</t>
+  </si>
+  <si>
+    <t>2015-11-20 15:50:01.714</t>
+  </si>
+  <si>
+    <t>2015-11-20 15:40:01.376</t>
+  </si>
+  <si>
+    <t>2015-11-20 15:30:03.097</t>
+  </si>
+  <si>
+    <t>2015-11-20 15:20:04.240</t>
+  </si>
+  <si>
+    <t>2015-11-20 15:10:01.885</t>
+  </si>
+  <si>
+    <t>2015-11-20 15:00:03.339</t>
+  </si>
+  <si>
+    <t>2015-11-20 14:50:02.801</t>
+  </si>
+  <si>
+    <t>2015-11-20 14:40:03.599</t>
+  </si>
+  <si>
+    <t>2015-11-20 14:30:04.298</t>
+  </si>
+  <si>
+    <t>2015-11-20 14:20:03.961</t>
+  </si>
+  <si>
+    <t>2015-11-20 14:10:03.249</t>
+  </si>
+  <si>
+    <t>2015-11-20 14:00:02.299</t>
+  </si>
+  <si>
+    <t>2015-11-18 18:30:02.228</t>
+  </si>
+  <si>
+    <t>2015-11-18 18:20:02.710</t>
+  </si>
+  <si>
+    <t>2015-11-18 18:10:01.833</t>
+  </si>
+  <si>
+    <t>2015-11-18 18:00:02.487</t>
+  </si>
+  <si>
+    <t>2015-11-18 17:00:02.140</t>
+  </si>
+  <si>
+    <t>2015-11-18 16:20:02.054</t>
+  </si>
+  <si>
+    <t>2015-11-18 16:10:03.505</t>
+  </si>
+  <si>
+    <t>2015-11-18 16:00:01.168</t>
+  </si>
+  <si>
+    <t>2015-11-18 15:50:01.716</t>
+  </si>
+  <si>
+    <t>2015-11-18 15:40:02.955</t>
+  </si>
+  <si>
+    <t>2015-11-18 15:30:02.663</t>
+  </si>
+  <si>
+    <t>2015-11-18 14:50:01.455</t>
+  </si>
+  <si>
+    <t>2015-11-18 14:40:04.064</t>
+  </si>
+  <si>
+    <t>2015-11-18 14:30:03.474</t>
+  </si>
+  <si>
+    <t>2015-11-18 14:20:03.110</t>
+  </si>
+  <si>
+    <t>2015-11-18 14:10:02.480</t>
+  </si>
+  <si>
+    <t>2015-11-18 14:00:03.999</t>
+  </si>
+  <si>
+    <t>2015-11-18 13:50:01.979</t>
+  </si>
+  <si>
+    <t>2015-11-18 13:40:04.356</t>
+  </si>
+  <si>
+    <t>2015-11-18 13:30:02.282</t>
+  </si>
+  <si>
+    <t>2015-11-18 13:20:03.976</t>
+  </si>
+  <si>
+    <t>2015-11-18 13:10:01.973</t>
+  </si>
+  <si>
+    <t>2015-11-18 13:00:04.276</t>
+  </si>
+  <si>
+    <t>2015-11-18 12:50:02.259</t>
+  </si>
+  <si>
+    <t>2015-11-18 12:40:03.998</t>
+  </si>
+  <si>
+    <t>2015-11-18 12:30:01.977</t>
+  </si>
+  <si>
+    <t>2015-11-18 12:20:04.271</t>
+  </si>
+  <si>
+    <t>2015-11-18 12:10:02.286</t>
+  </si>
+  <si>
+    <t>2015-11-18 12:00:02.047</t>
+  </si>
+  <si>
+    <t>2015-11-18 11:50:01.118</t>
+  </si>
+  <si>
+    <t>2015-11-18 11:40:02.440</t>
+  </si>
+  <si>
+    <t>2015-11-18 11:30:04.036</t>
+  </si>
+  <si>
+    <t>2015-11-18 11:20:04.058</t>
+  </si>
+  <si>
+    <t>2015-11-18 11:10:01.905</t>
+  </si>
+  <si>
+    <t>2015-11-18 11:00:01.942</t>
+  </si>
+  <si>
+    <t>2015-11-18 10:50:02.615</t>
+  </si>
+  <si>
+    <t>2015-11-18 10:40:01.802</t>
+  </si>
+  <si>
+    <t>2015-11-18 10:30:02.865</t>
+  </si>
+  <si>
+    <t>2015-11-18 10:20:02.451</t>
+  </si>
+  <si>
+    <t>2015-11-18 10:10:01.685</t>
+  </si>
+  <si>
+    <t>2015-11-18 10:00:02.723</t>
+  </si>
+  <si>
+    <t>2015-11-18 09:40:03.821</t>
   </si>
 </sst>
 </file>
@@ -401,7 +647,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -480,40 +726,40 @@
         <v>8</v>
       </c>
       <c r="B3" s="3">
-        <v>0</v>
+        <v>63.0473905218956</v>
       </c>
       <c r="C3" s="3">
-        <v>0</v>
+        <v>1051</v>
       </c>
       <c r="D3" s="3">
-        <v>21.32</v>
+        <v>18.68</v>
       </c>
       <c r="E3" s="3">
-        <v>0</v>
+        <v>63.0473905218956</v>
       </c>
       <c r="F3" s="3">
-        <v>0</v>
+        <v>1051</v>
       </c>
       <c r="G3" s="3">
-        <v>21.05</v>
+        <v>18.85</v>
       </c>
       <c r="H3" s="3">
-        <v>3</v>
+        <v>24.254</v>
       </c>
       <c r="I3" s="3">
-        <v>50.01</v>
+        <v>404.31418</v>
       </c>
       <c r="J3" s="3">
-        <v>20.79</v>
+        <v>18.44</v>
       </c>
       <c r="K3" s="3">
-        <v>3</v>
+        <v>24.254</v>
       </c>
       <c r="L3" s="3">
-        <v>50.01</v>
+        <v>404.31418</v>
       </c>
       <c r="M3" s="3">
-        <v>21.5</v>
+        <v>18.38</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -521,40 +767,40 @@
         <v>9</v>
       </c>
       <c r="B4" s="3">
-        <v>0</v>
+        <v>63.0473905218956</v>
       </c>
       <c r="C4" s="3">
-        <v>0</v>
+        <v>1051</v>
       </c>
       <c r="D4" s="3">
-        <v>21.32</v>
+        <v>18.68</v>
       </c>
       <c r="E4" s="3">
-        <v>0</v>
+        <v>63.0473905218956</v>
       </c>
       <c r="F4" s="3">
-        <v>0</v>
+        <v>1051</v>
       </c>
       <c r="G4" s="3">
-        <v>21.05</v>
+        <v>18.85</v>
       </c>
       <c r="H4" s="3">
-        <v>3</v>
+        <v>24.254</v>
       </c>
       <c r="I4" s="3">
-        <v>50.01</v>
+        <v>404.31418</v>
       </c>
       <c r="J4" s="3">
-        <v>20.79</v>
+        <v>18.44</v>
       </c>
       <c r="K4" s="3">
-        <v>3</v>
+        <v>24.254</v>
       </c>
       <c r="L4" s="3">
-        <v>50.01</v>
+        <v>404.31418</v>
       </c>
       <c r="M4" s="3">
-        <v>21.5</v>
+        <v>18.38</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -562,40 +808,40 @@
         <v>10</v>
       </c>
       <c r="B5" s="3">
-        <v>0</v>
+        <v>63.0473905218956</v>
       </c>
       <c r="C5" s="3">
-        <v>0</v>
+        <v>1051</v>
       </c>
       <c r="D5" s="3">
-        <v>21.32</v>
+        <v>18.68</v>
       </c>
       <c r="E5" s="3">
-        <v>0</v>
+        <v>63.0473905218956</v>
       </c>
       <c r="F5" s="3">
-        <v>0</v>
+        <v>1051</v>
       </c>
       <c r="G5" s="3">
-        <v>21.05</v>
+        <v>18.85</v>
       </c>
       <c r="H5" s="3">
-        <v>3</v>
+        <v>24.254</v>
       </c>
       <c r="I5" s="3">
-        <v>50.01</v>
+        <v>404.31418</v>
       </c>
       <c r="J5" s="3">
-        <v>20.79</v>
+        <v>18.44</v>
       </c>
       <c r="K5" s="3">
-        <v>3</v>
+        <v>24.254</v>
       </c>
       <c r="L5" s="3">
-        <v>50.01</v>
+        <v>404.31418</v>
       </c>
       <c r="M5" s="3">
-        <v>21.5</v>
+        <v>18.38</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -603,40 +849,40 @@
         <v>11</v>
       </c>
       <c r="B6" s="3">
-        <v>0</v>
+        <v>63.0473905218956</v>
       </c>
       <c r="C6" s="3">
-        <v>0</v>
+        <v>1051</v>
       </c>
       <c r="D6" s="3">
-        <v>21.32</v>
+        <v>18.68</v>
       </c>
       <c r="E6" s="3">
-        <v>0</v>
+        <v>63.0473905218956</v>
       </c>
       <c r="F6" s="3">
-        <v>0</v>
+        <v>1051</v>
       </c>
       <c r="G6" s="3">
-        <v>21.05</v>
+        <v>18.85</v>
       </c>
       <c r="H6" s="3">
-        <v>3</v>
+        <v>24.254</v>
       </c>
       <c r="I6" s="3">
-        <v>50.01</v>
+        <v>404.31418</v>
       </c>
       <c r="J6" s="3">
-        <v>20.79</v>
+        <v>18.44</v>
       </c>
       <c r="K6" s="3">
-        <v>3</v>
+        <v>24.254</v>
       </c>
       <c r="L6" s="3">
-        <v>50.01</v>
+        <v>404.31418</v>
       </c>
       <c r="M6" s="3">
-        <v>21.5</v>
+        <v>18.38</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -644,40 +890,3402 @@
         <v>12</v>
       </c>
       <c r="B7" s="3">
-        <v>0</v>
+        <v>63.0473905218956</v>
       </c>
       <c r="C7" s="3">
-        <v>0</v>
+        <v>1051</v>
       </c>
       <c r="D7" s="3">
-        <v>21.32</v>
+        <v>18.68</v>
       </c>
       <c r="E7" s="3">
-        <v>0</v>
+        <v>63.0473905218956</v>
       </c>
       <c r="F7" s="3">
-        <v>0</v>
+        <v>1051</v>
       </c>
       <c r="G7" s="3">
-        <v>21.05</v>
+        <v>18.85</v>
       </c>
       <c r="H7" s="3">
-        <v>3</v>
+        <v>24.254</v>
       </c>
       <c r="I7" s="3">
-        <v>50.01</v>
+        <v>404.31418</v>
       </c>
       <c r="J7" s="3">
-        <v>20.79</v>
+        <v>18.44</v>
       </c>
       <c r="K7" s="3">
-        <v>3</v>
+        <v>24.254</v>
       </c>
       <c r="L7" s="3">
-        <v>50.01</v>
+        <v>404.31418</v>
       </c>
       <c r="M7" s="3">
-        <v>21.5</v>
+        <v>18.38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="3">
+        <v>63.0473905218956</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1051</v>
+      </c>
+      <c r="D8" s="3">
+        <v>18.68</v>
+      </c>
+      <c r="E8" s="3">
+        <v>63.0473905218956</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1051</v>
+      </c>
+      <c r="G8" s="3">
+        <v>18.85</v>
+      </c>
+      <c r="H8" s="3">
+        <v>24.254</v>
+      </c>
+      <c r="I8" s="3">
+        <v>404.31418</v>
+      </c>
+      <c r="J8" s="3">
+        <v>18.44</v>
+      </c>
+      <c r="K8" s="3">
+        <v>24.254</v>
+      </c>
+      <c r="L8" s="3">
+        <v>404.31418</v>
+      </c>
+      <c r="M8" s="3">
+        <v>18.38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="3">
+        <v>63.0473905218956</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1051</v>
+      </c>
+      <c r="D9" s="3">
+        <v>18.68</v>
+      </c>
+      <c r="E9" s="3">
+        <v>63.0473905218956</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1051</v>
+      </c>
+      <c r="G9" s="3">
+        <v>18.85</v>
+      </c>
+      <c r="H9" s="3">
+        <v>24.254</v>
+      </c>
+      <c r="I9" s="3">
+        <v>404.31418</v>
+      </c>
+      <c r="J9" s="3">
+        <v>18.44</v>
+      </c>
+      <c r="K9" s="3">
+        <v>24.254</v>
+      </c>
+      <c r="L9" s="3">
+        <v>404.31418</v>
+      </c>
+      <c r="M9" s="3">
+        <v>18.38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="3">
+        <v>63.0473905218956</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1051</v>
+      </c>
+      <c r="D10" s="3">
+        <v>18.68</v>
+      </c>
+      <c r="E10" s="3">
+        <v>63.0473905218956</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1051</v>
+      </c>
+      <c r="G10" s="3">
+        <v>18.85</v>
+      </c>
+      <c r="H10" s="3">
+        <v>24.254</v>
+      </c>
+      <c r="I10" s="3">
+        <v>404.31418</v>
+      </c>
+      <c r="J10" s="3">
+        <v>18.44</v>
+      </c>
+      <c r="K10" s="3">
+        <v>24.254</v>
+      </c>
+      <c r="L10" s="3">
+        <v>404.31418</v>
+      </c>
+      <c r="M10" s="3">
+        <v>18.38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="3">
+        <v>63.0473905218956</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1051</v>
+      </c>
+      <c r="D11" s="3">
+        <v>18.68</v>
+      </c>
+      <c r="E11" s="3">
+        <v>63.0473905218956</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1051</v>
+      </c>
+      <c r="G11" s="3">
+        <v>18.85</v>
+      </c>
+      <c r="H11" s="3">
+        <v>24.254</v>
+      </c>
+      <c r="I11" s="3">
+        <v>404.31418</v>
+      </c>
+      <c r="J11" s="3">
+        <v>18.44</v>
+      </c>
+      <c r="K11" s="3">
+        <v>24.254</v>
+      </c>
+      <c r="L11" s="3">
+        <v>404.31418</v>
+      </c>
+      <c r="M11" s="3">
+        <v>18.38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="3">
+        <v>63.0473905218956</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1051</v>
+      </c>
+      <c r="D12" s="3">
+        <v>18.68</v>
+      </c>
+      <c r="E12" s="3">
+        <v>63.0473905218956</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1051</v>
+      </c>
+      <c r="G12" s="3">
+        <v>18.85</v>
+      </c>
+      <c r="H12" s="3">
+        <v>24.254</v>
+      </c>
+      <c r="I12" s="3">
+        <v>404.31418</v>
+      </c>
+      <c r="J12" s="3">
+        <v>18.44</v>
+      </c>
+      <c r="K12" s="3">
+        <v>24.254</v>
+      </c>
+      <c r="L12" s="3">
+        <v>404.31418</v>
+      </c>
+      <c r="M12" s="3">
+        <v>18.38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="3">
+        <v>63.0473905218956</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1051</v>
+      </c>
+      <c r="D13" s="3">
+        <v>18.68</v>
+      </c>
+      <c r="E13" s="3">
+        <v>63.0473905218956</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1051</v>
+      </c>
+      <c r="G13" s="3">
+        <v>18.85</v>
+      </c>
+      <c r="H13" s="3">
+        <v>24.254</v>
+      </c>
+      <c r="I13" s="3">
+        <v>404.31418</v>
+      </c>
+      <c r="J13" s="3">
+        <v>18.44</v>
+      </c>
+      <c r="K13" s="3">
+        <v>24.254</v>
+      </c>
+      <c r="L13" s="3">
+        <v>404.31418</v>
+      </c>
+      <c r="M13" s="3">
+        <v>18.38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="3">
+        <v>63.0473905218956</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1051</v>
+      </c>
+      <c r="D14" s="3">
+        <v>18.68</v>
+      </c>
+      <c r="E14" s="3">
+        <v>63.0473905218956</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1051</v>
+      </c>
+      <c r="G14" s="3">
+        <v>18.85</v>
+      </c>
+      <c r="H14" s="3">
+        <v>24.254</v>
+      </c>
+      <c r="I14" s="3">
+        <v>404.31418</v>
+      </c>
+      <c r="J14" s="3">
+        <v>18.44</v>
+      </c>
+      <c r="K14" s="3">
+        <v>24.254</v>
+      </c>
+      <c r="L14" s="3">
+        <v>404.31418</v>
+      </c>
+      <c r="M14" s="3">
+        <v>18.38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="3">
+        <v>63.0473905218956</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1051</v>
+      </c>
+      <c r="D15" s="3">
+        <v>18.68</v>
+      </c>
+      <c r="E15" s="3">
+        <v>63.0473905218956</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1051</v>
+      </c>
+      <c r="G15" s="3">
+        <v>18.85</v>
+      </c>
+      <c r="H15" s="3">
+        <v>24.254</v>
+      </c>
+      <c r="I15" s="3">
+        <v>404.31418</v>
+      </c>
+      <c r="J15" s="3">
+        <v>18.44</v>
+      </c>
+      <c r="K15" s="3">
+        <v>24.254</v>
+      </c>
+      <c r="L15" s="3">
+        <v>404.31418</v>
+      </c>
+      <c r="M15" s="3">
+        <v>18.38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="3">
+        <v>63.0473905218956</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1051</v>
+      </c>
+      <c r="D16" s="3">
+        <v>18.68</v>
+      </c>
+      <c r="E16" s="3">
+        <v>63.0473905218956</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1051</v>
+      </c>
+      <c r="G16" s="3">
+        <v>18.85</v>
+      </c>
+      <c r="H16" s="3">
+        <v>24.254</v>
+      </c>
+      <c r="I16" s="3">
+        <v>404.31418</v>
+      </c>
+      <c r="J16" s="3">
+        <v>18.44</v>
+      </c>
+      <c r="K16" s="3">
+        <v>24.254</v>
+      </c>
+      <c r="L16" s="3">
+        <v>404.31418</v>
+      </c>
+      <c r="M16" s="3">
+        <v>18.38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="3">
+        <v>63.0473905218956</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1051</v>
+      </c>
+      <c r="D17" s="3">
+        <v>18.68</v>
+      </c>
+      <c r="E17" s="3">
+        <v>63.0473905218956</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1051</v>
+      </c>
+      <c r="G17" s="3">
+        <v>18.85</v>
+      </c>
+      <c r="H17" s="3">
+        <v>24.254</v>
+      </c>
+      <c r="I17" s="3">
+        <v>404.31418</v>
+      </c>
+      <c r="J17" s="3">
+        <v>18.44</v>
+      </c>
+      <c r="K17" s="3">
+        <v>24.254</v>
+      </c>
+      <c r="L17" s="3">
+        <v>404.31418</v>
+      </c>
+      <c r="M17" s="3">
+        <v>18.38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="3">
+        <v>63.0473905218956</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1051</v>
+      </c>
+      <c r="D18" s="3">
+        <v>18.68</v>
+      </c>
+      <c r="E18" s="3">
+        <v>63.0473905218956</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1051</v>
+      </c>
+      <c r="G18" s="3">
+        <v>18.85</v>
+      </c>
+      <c r="H18" s="3">
+        <v>24.254</v>
+      </c>
+      <c r="I18" s="3">
+        <v>404.31418</v>
+      </c>
+      <c r="J18" s="3">
+        <v>18.44</v>
+      </c>
+      <c r="K18" s="3">
+        <v>24.254</v>
+      </c>
+      <c r="L18" s="3">
+        <v>404.31418</v>
+      </c>
+      <c r="M18" s="3">
+        <v>18.38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="3">
+        <v>63.0473905218956</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1051</v>
+      </c>
+      <c r="D19" s="3">
+        <v>18.68</v>
+      </c>
+      <c r="E19" s="3">
+        <v>63.0473905218956</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1051</v>
+      </c>
+      <c r="G19" s="3">
+        <v>18.85</v>
+      </c>
+      <c r="H19" s="3">
+        <v>24.254</v>
+      </c>
+      <c r="I19" s="3">
+        <v>404.31418</v>
+      </c>
+      <c r="J19" s="3">
+        <v>18.44</v>
+      </c>
+      <c r="K19" s="3">
+        <v>24.254</v>
+      </c>
+      <c r="L19" s="3">
+        <v>404.31418</v>
+      </c>
+      <c r="M19" s="3">
+        <v>18.38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="3">
+        <v>63.0473905218956</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1051</v>
+      </c>
+      <c r="D20" s="3">
+        <v>18.68</v>
+      </c>
+      <c r="E20" s="3">
+        <v>63.0473905218956</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1051</v>
+      </c>
+      <c r="G20" s="3">
+        <v>18.85</v>
+      </c>
+      <c r="H20" s="3">
+        <v>24.254</v>
+      </c>
+      <c r="I20" s="3">
+        <v>404.31418</v>
+      </c>
+      <c r="J20" s="3">
+        <v>18.44</v>
+      </c>
+      <c r="K20" s="3">
+        <v>24.254</v>
+      </c>
+      <c r="L20" s="3">
+        <v>404.31418</v>
+      </c>
+      <c r="M20" s="3">
+        <v>18.38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="3">
+        <v>63.0473905218956</v>
+      </c>
+      <c r="C21" s="3">
+        <v>1051</v>
+      </c>
+      <c r="D21" s="3">
+        <v>18.68</v>
+      </c>
+      <c r="E21" s="3">
+        <v>63.0473905218956</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1051</v>
+      </c>
+      <c r="G21" s="3">
+        <v>18.85</v>
+      </c>
+      <c r="H21" s="3">
+        <v>24.254</v>
+      </c>
+      <c r="I21" s="3">
+        <v>404.31418</v>
+      </c>
+      <c r="J21" s="3">
+        <v>18.44</v>
+      </c>
+      <c r="K21" s="3">
+        <v>24.254</v>
+      </c>
+      <c r="L21" s="3">
+        <v>404.31418</v>
+      </c>
+      <c r="M21" s="3">
+        <v>18.38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="3">
+        <v>63.0473905218956</v>
+      </c>
+      <c r="C22" s="3">
+        <v>1051</v>
+      </c>
+      <c r="D22" s="3">
+        <v>18.68</v>
+      </c>
+      <c r="E22" s="3">
+        <v>63.0473905218956</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1051</v>
+      </c>
+      <c r="G22" s="3">
+        <v>18.85</v>
+      </c>
+      <c r="H22" s="3">
+        <v>24.254</v>
+      </c>
+      <c r="I22" s="3">
+        <v>404.31418</v>
+      </c>
+      <c r="J22" s="3">
+        <v>18.44</v>
+      </c>
+      <c r="K22" s="3">
+        <v>24.254</v>
+      </c>
+      <c r="L22" s="3">
+        <v>404.31418</v>
+      </c>
+      <c r="M22" s="3">
+        <v>18.38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="3">
+        <v>63.0473905218956</v>
+      </c>
+      <c r="C23" s="3">
+        <v>1051</v>
+      </c>
+      <c r="D23" s="3">
+        <v>18.68</v>
+      </c>
+      <c r="E23" s="3">
+        <v>63.0473905218956</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1051</v>
+      </c>
+      <c r="G23" s="3">
+        <v>18.85</v>
+      </c>
+      <c r="H23" s="3">
+        <v>24.254</v>
+      </c>
+      <c r="I23" s="3">
+        <v>404.31418</v>
+      </c>
+      <c r="J23" s="3">
+        <v>18.44</v>
+      </c>
+      <c r="K23" s="3">
+        <v>24.254</v>
+      </c>
+      <c r="L23" s="3">
+        <v>404.31418</v>
+      </c>
+      <c r="M23" s="3">
+        <v>18.38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="3">
+        <v>63.0473905218956</v>
+      </c>
+      <c r="C24" s="3">
+        <v>1051</v>
+      </c>
+      <c r="D24" s="3">
+        <v>18.68</v>
+      </c>
+      <c r="E24" s="3">
+        <v>63.0473905218956</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1051</v>
+      </c>
+      <c r="G24" s="3">
+        <v>18.85</v>
+      </c>
+      <c r="H24" s="3">
+        <v>24.254</v>
+      </c>
+      <c r="I24" s="3">
+        <v>404.31418</v>
+      </c>
+      <c r="J24" s="3">
+        <v>18.44</v>
+      </c>
+      <c r="K24" s="3">
+        <v>24.254</v>
+      </c>
+      <c r="L24" s="3">
+        <v>404.31418</v>
+      </c>
+      <c r="M24" s="3">
+        <v>18.38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="3">
+        <v>63.0473905218956</v>
+      </c>
+      <c r="C25" s="3">
+        <v>1051</v>
+      </c>
+      <c r="D25" s="3">
+        <v>18.68</v>
+      </c>
+      <c r="E25" s="3">
+        <v>63.0473905218956</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1051</v>
+      </c>
+      <c r="G25" s="3">
+        <v>18.85</v>
+      </c>
+      <c r="H25" s="3">
+        <v>24.254</v>
+      </c>
+      <c r="I25" s="3">
+        <v>404.31418</v>
+      </c>
+      <c r="J25" s="3">
+        <v>18.44</v>
+      </c>
+      <c r="K25" s="3">
+        <v>24.254</v>
+      </c>
+      <c r="L25" s="3">
+        <v>404.31418</v>
+      </c>
+      <c r="M25" s="3">
+        <v>18.38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="3">
+        <v>63.0473905218956</v>
+      </c>
+      <c r="C26" s="3">
+        <v>1051</v>
+      </c>
+      <c r="D26" s="3">
+        <v>18.68</v>
+      </c>
+      <c r="E26" s="3">
+        <v>63.0473905218956</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1051</v>
+      </c>
+      <c r="G26" s="3">
+        <v>18.85</v>
+      </c>
+      <c r="H26" s="3">
+        <v>24.254</v>
+      </c>
+      <c r="I26" s="3">
+        <v>404.31418</v>
+      </c>
+      <c r="J26" s="3">
+        <v>18.44</v>
+      </c>
+      <c r="K26" s="3">
+        <v>24.254</v>
+      </c>
+      <c r="L26" s="3">
+        <v>404.31418</v>
+      </c>
+      <c r="M26" s="3">
+        <v>18.38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="3">
+        <v>63.0473905218956</v>
+      </c>
+      <c r="C27" s="3">
+        <v>1051</v>
+      </c>
+      <c r="D27" s="3">
+        <v>18.68</v>
+      </c>
+      <c r="E27" s="3">
+        <v>63.0473905218956</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1051</v>
+      </c>
+      <c r="G27" s="3">
+        <v>18.85</v>
+      </c>
+      <c r="H27" s="3">
+        <v>24.254</v>
+      </c>
+      <c r="I27" s="3">
+        <v>404.31418</v>
+      </c>
+      <c r="J27" s="3">
+        <v>18.44</v>
+      </c>
+      <c r="K27" s="3">
+        <v>24.254</v>
+      </c>
+      <c r="L27" s="3">
+        <v>404.31418</v>
+      </c>
+      <c r="M27" s="3">
+        <v>18.38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="3">
+        <v>63.0473905218956</v>
+      </c>
+      <c r="C28" s="3">
+        <v>1051</v>
+      </c>
+      <c r="D28" s="3">
+        <v>18.68</v>
+      </c>
+      <c r="E28" s="3">
+        <v>63.0473905218956</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1051</v>
+      </c>
+      <c r="G28" s="3">
+        <v>18.85</v>
+      </c>
+      <c r="H28" s="3">
+        <v>24.254</v>
+      </c>
+      <c r="I28" s="3">
+        <v>404.31418</v>
+      </c>
+      <c r="J28" s="3">
+        <v>18.44</v>
+      </c>
+      <c r="K28" s="3">
+        <v>24.254</v>
+      </c>
+      <c r="L28" s="3">
+        <v>404.31418</v>
+      </c>
+      <c r="M28" s="3">
+        <v>18.38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="3">
+        <v>63.0473905218956</v>
+      </c>
+      <c r="C29" s="3">
+        <v>1051</v>
+      </c>
+      <c r="D29" s="3">
+        <v>18.68</v>
+      </c>
+      <c r="E29" s="3">
+        <v>63.0473905218956</v>
+      </c>
+      <c r="F29" s="3">
+        <v>1051</v>
+      </c>
+      <c r="G29" s="3">
+        <v>18.85</v>
+      </c>
+      <c r="H29" s="3">
+        <v>24.254</v>
+      </c>
+      <c r="I29" s="3">
+        <v>404.31418</v>
+      </c>
+      <c r="J29" s="3">
+        <v>18.44</v>
+      </c>
+      <c r="K29" s="3">
+        <v>24.254</v>
+      </c>
+      <c r="L29" s="3">
+        <v>404.31418</v>
+      </c>
+      <c r="M29" s="3">
+        <v>18.38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="3">
+        <v>63.0473905218956</v>
+      </c>
+      <c r="C30" s="3">
+        <v>1051</v>
+      </c>
+      <c r="D30" s="3">
+        <v>18.68</v>
+      </c>
+      <c r="E30" s="3">
+        <v>63.0473905218956</v>
+      </c>
+      <c r="F30" s="3">
+        <v>1051</v>
+      </c>
+      <c r="G30" s="3">
+        <v>18.85</v>
+      </c>
+      <c r="H30" s="3">
+        <v>24.254</v>
+      </c>
+      <c r="I30" s="3">
+        <v>404.31418</v>
+      </c>
+      <c r="J30" s="3">
+        <v>18.44</v>
+      </c>
+      <c r="K30" s="3">
+        <v>24.254</v>
+      </c>
+      <c r="L30" s="3">
+        <v>404.31418</v>
+      </c>
+      <c r="M30" s="3">
+        <v>18.38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="3">
+        <v>63.0473905218956</v>
+      </c>
+      <c r="C31" s="3">
+        <v>1051</v>
+      </c>
+      <c r="D31" s="3">
+        <v>18.68</v>
+      </c>
+      <c r="E31" s="3">
+        <v>63.0473905218956</v>
+      </c>
+      <c r="F31" s="3">
+        <v>1051</v>
+      </c>
+      <c r="G31" s="3">
+        <v>18.85</v>
+      </c>
+      <c r="H31" s="3">
+        <v>24.254</v>
+      </c>
+      <c r="I31" s="3">
+        <v>404.31418</v>
+      </c>
+      <c r="J31" s="3">
+        <v>18.44</v>
+      </c>
+      <c r="K31" s="3">
+        <v>24.254</v>
+      </c>
+      <c r="L31" s="3">
+        <v>404.31418</v>
+      </c>
+      <c r="M31" s="3">
+        <v>18.38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="3">
+        <v>63.0473905218956</v>
+      </c>
+      <c r="C32" s="3">
+        <v>1051</v>
+      </c>
+      <c r="D32" s="3">
+        <v>18.68</v>
+      </c>
+      <c r="E32" s="3">
+        <v>63.0473905218956</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1051</v>
+      </c>
+      <c r="G32" s="3">
+        <v>18.85</v>
+      </c>
+      <c r="H32" s="3">
+        <v>24.254</v>
+      </c>
+      <c r="I32" s="3">
+        <v>404.31418</v>
+      </c>
+      <c r="J32" s="3">
+        <v>18.44</v>
+      </c>
+      <c r="K32" s="3">
+        <v>24.254</v>
+      </c>
+      <c r="L32" s="3">
+        <v>404.31418</v>
+      </c>
+      <c r="M32" s="3">
+        <v>18.38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="3">
+        <v>63.0473905218956</v>
+      </c>
+      <c r="C33" s="3">
+        <v>1051</v>
+      </c>
+      <c r="D33" s="3">
+        <v>18.68</v>
+      </c>
+      <c r="E33" s="3">
+        <v>63.0473905218956</v>
+      </c>
+      <c r="F33" s="3">
+        <v>1051</v>
+      </c>
+      <c r="G33" s="3">
+        <v>18.85</v>
+      </c>
+      <c r="H33" s="3">
+        <v>24.254</v>
+      </c>
+      <c r="I33" s="3">
+        <v>404.31418</v>
+      </c>
+      <c r="J33" s="3">
+        <v>18.44</v>
+      </c>
+      <c r="K33" s="3">
+        <v>24.254</v>
+      </c>
+      <c r="L33" s="3">
+        <v>404.31418</v>
+      </c>
+      <c r="M33" s="3">
+        <v>18.38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="3">
+        <v>63.0473905218956</v>
+      </c>
+      <c r="C34" s="3">
+        <v>1051</v>
+      </c>
+      <c r="D34" s="3">
+        <v>18.68</v>
+      </c>
+      <c r="E34" s="3">
+        <v>63.0473905218956</v>
+      </c>
+      <c r="F34" s="3">
+        <v>1051</v>
+      </c>
+      <c r="G34" s="3">
+        <v>18.85</v>
+      </c>
+      <c r="H34" s="3">
+        <v>24.254</v>
+      </c>
+      <c r="I34" s="3">
+        <v>404.31418</v>
+      </c>
+      <c r="J34" s="3">
+        <v>18.44</v>
+      </c>
+      <c r="K34" s="3">
+        <v>24.254</v>
+      </c>
+      <c r="L34" s="3">
+        <v>404.31418</v>
+      </c>
+      <c r="M34" s="3">
+        <v>18.38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="3">
+        <v>63.0473905218956</v>
+      </c>
+      <c r="C35" s="3">
+        <v>1051</v>
+      </c>
+      <c r="D35" s="3">
+        <v>18.68</v>
+      </c>
+      <c r="E35" s="3">
+        <v>63.0473905218956</v>
+      </c>
+      <c r="F35" s="3">
+        <v>1051</v>
+      </c>
+      <c r="G35" s="3">
+        <v>18.85</v>
+      </c>
+      <c r="H35" s="3">
+        <v>24.254</v>
+      </c>
+      <c r="I35" s="3">
+        <v>404.31418</v>
+      </c>
+      <c r="J35" s="3">
+        <v>18.44</v>
+      </c>
+      <c r="K35" s="3">
+        <v>24.254</v>
+      </c>
+      <c r="L35" s="3">
+        <v>404.31418</v>
+      </c>
+      <c r="M35" s="3">
+        <v>18.38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="3">
+        <v>63.0473905218956</v>
+      </c>
+      <c r="C36" s="3">
+        <v>1051</v>
+      </c>
+      <c r="D36" s="3">
+        <v>18.68</v>
+      </c>
+      <c r="E36" s="3">
+        <v>63.0473905218956</v>
+      </c>
+      <c r="F36" s="3">
+        <v>1051</v>
+      </c>
+      <c r="G36" s="3">
+        <v>18.85</v>
+      </c>
+      <c r="H36" s="3">
+        <v>24.254</v>
+      </c>
+      <c r="I36" s="3">
+        <v>404.31418</v>
+      </c>
+      <c r="J36" s="3">
+        <v>18.44</v>
+      </c>
+      <c r="K36" s="3">
+        <v>24.254</v>
+      </c>
+      <c r="L36" s="3">
+        <v>404.31418</v>
+      </c>
+      <c r="M36" s="3">
+        <v>18.38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" s="3">
+        <v>63.0473905218956</v>
+      </c>
+      <c r="C37" s="3">
+        <v>1051</v>
+      </c>
+      <c r="D37" s="3">
+        <v>18.68</v>
+      </c>
+      <c r="E37" s="3">
+        <v>63.0473905218956</v>
+      </c>
+      <c r="F37" s="3">
+        <v>1051</v>
+      </c>
+      <c r="G37" s="3">
+        <v>18.85</v>
+      </c>
+      <c r="H37" s="3">
+        <v>24.254</v>
+      </c>
+      <c r="I37" s="3">
+        <v>404.31418</v>
+      </c>
+      <c r="J37" s="3">
+        <v>18.44</v>
+      </c>
+      <c r="K37" s="3">
+        <v>24.254</v>
+      </c>
+      <c r="L37" s="3">
+        <v>404.31418</v>
+      </c>
+      <c r="M37" s="3">
+        <v>18.38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="3">
+        <v>63.0473905218956</v>
+      </c>
+      <c r="C38" s="3">
+        <v>1051</v>
+      </c>
+      <c r="D38" s="3">
+        <v>18.68</v>
+      </c>
+      <c r="E38" s="3">
+        <v>63.0473905218956</v>
+      </c>
+      <c r="F38" s="3">
+        <v>1051</v>
+      </c>
+      <c r="G38" s="3">
+        <v>18.85</v>
+      </c>
+      <c r="H38" s="3">
+        <v>24.254</v>
+      </c>
+      <c r="I38" s="3">
+        <v>404.31418</v>
+      </c>
+      <c r="J38" s="3">
+        <v>18.44</v>
+      </c>
+      <c r="K38" s="3">
+        <v>24.254</v>
+      </c>
+      <c r="L38" s="3">
+        <v>404.31418</v>
+      </c>
+      <c r="M38" s="3">
+        <v>18.38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" s="3">
+        <v>63.0473905218956</v>
+      </c>
+      <c r="C39" s="3">
+        <v>1051</v>
+      </c>
+      <c r="D39" s="3">
+        <v>18.68</v>
+      </c>
+      <c r="E39" s="3">
+        <v>63.0473905218956</v>
+      </c>
+      <c r="F39" s="3">
+        <v>1051</v>
+      </c>
+      <c r="G39" s="3">
+        <v>18.85</v>
+      </c>
+      <c r="H39" s="3">
+        <v>24.254</v>
+      </c>
+      <c r="I39" s="3">
+        <v>404.31418</v>
+      </c>
+      <c r="J39" s="3">
+        <v>18.44</v>
+      </c>
+      <c r="K39" s="3">
+        <v>24.254</v>
+      </c>
+      <c r="L39" s="3">
+        <v>404.31418</v>
+      </c>
+      <c r="M39" s="3">
+        <v>18.38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" s="3">
+        <v>63.0473905218956</v>
+      </c>
+      <c r="C40" s="3">
+        <v>1051</v>
+      </c>
+      <c r="D40" s="3">
+        <v>18.68</v>
+      </c>
+      <c r="E40" s="3">
+        <v>63.0473905218956</v>
+      </c>
+      <c r="F40" s="3">
+        <v>1051</v>
+      </c>
+      <c r="G40" s="3">
+        <v>18.85</v>
+      </c>
+      <c r="H40" s="3">
+        <v>24.254</v>
+      </c>
+      <c r="I40" s="3">
+        <v>404.31418</v>
+      </c>
+      <c r="J40" s="3">
+        <v>18.44</v>
+      </c>
+      <c r="K40" s="3">
+        <v>24.254</v>
+      </c>
+      <c r="L40" s="3">
+        <v>404.31418</v>
+      </c>
+      <c r="M40" s="3">
+        <v>18.38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" s="3">
+        <v>63.0473905218956</v>
+      </c>
+      <c r="C41" s="3">
+        <v>1051</v>
+      </c>
+      <c r="D41" s="3">
+        <v>18.68</v>
+      </c>
+      <c r="E41" s="3">
+        <v>63.0473905218956</v>
+      </c>
+      <c r="F41" s="3">
+        <v>1051</v>
+      </c>
+      <c r="G41" s="3">
+        <v>18.85</v>
+      </c>
+      <c r="H41" s="3">
+        <v>24.254</v>
+      </c>
+      <c r="I41" s="3">
+        <v>404.31418</v>
+      </c>
+      <c r="J41" s="3">
+        <v>18.44</v>
+      </c>
+      <c r="K41" s="3">
+        <v>24.254</v>
+      </c>
+      <c r="L41" s="3">
+        <v>404.31418</v>
+      </c>
+      <c r="M41" s="3">
+        <v>18.38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" s="3">
+        <v>63.0473905218956</v>
+      </c>
+      <c r="C42" s="3">
+        <v>1051</v>
+      </c>
+      <c r="D42" s="3">
+        <v>18.68</v>
+      </c>
+      <c r="E42" s="3">
+        <v>63.0473905218956</v>
+      </c>
+      <c r="F42" s="3">
+        <v>1051</v>
+      </c>
+      <c r="G42" s="3">
+        <v>18.85</v>
+      </c>
+      <c r="H42" s="3">
+        <v>24.254</v>
+      </c>
+      <c r="I42" s="3">
+        <v>404.31418</v>
+      </c>
+      <c r="J42" s="3">
+        <v>18.44</v>
+      </c>
+      <c r="K42" s="3">
+        <v>24.254</v>
+      </c>
+      <c r="L42" s="3">
+        <v>404.31418</v>
+      </c>
+      <c r="M42" s="3">
+        <v>18.38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="3">
+        <v>63.0473905218956</v>
+      </c>
+      <c r="C43" s="3">
+        <v>1051</v>
+      </c>
+      <c r="D43" s="3">
+        <v>18.68</v>
+      </c>
+      <c r="E43" s="3">
+        <v>63.0473905218956</v>
+      </c>
+      <c r="F43" s="3">
+        <v>1051</v>
+      </c>
+      <c r="G43" s="3">
+        <v>18.85</v>
+      </c>
+      <c r="H43" s="3">
+        <v>24.254</v>
+      </c>
+      <c r="I43" s="3">
+        <v>404.31418</v>
+      </c>
+      <c r="J43" s="3">
+        <v>18.44</v>
+      </c>
+      <c r="K43" s="3">
+        <v>24.254</v>
+      </c>
+      <c r="L43" s="3">
+        <v>404.31418</v>
+      </c>
+      <c r="M43" s="3">
+        <v>18.38</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" s="3">
+        <v>63.0473905218956</v>
+      </c>
+      <c r="C44" s="3">
+        <v>1051</v>
+      </c>
+      <c r="D44" s="3">
+        <v>18.68</v>
+      </c>
+      <c r="E44" s="3">
+        <v>63.0473905218956</v>
+      </c>
+      <c r="F44" s="3">
+        <v>1051</v>
+      </c>
+      <c r="G44" s="3">
+        <v>18.85</v>
+      </c>
+      <c r="H44" s="3">
+        <v>24.254</v>
+      </c>
+      <c r="I44" s="3">
+        <v>404.31418</v>
+      </c>
+      <c r="J44" s="3">
+        <v>18.44</v>
+      </c>
+      <c r="K44" s="3">
+        <v>24.254</v>
+      </c>
+      <c r="L44" s="3">
+        <v>404.31418</v>
+      </c>
+      <c r="M44" s="3">
+        <v>18.38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" s="3">
+        <v>63.0473905218956</v>
+      </c>
+      <c r="C45" s="3">
+        <v>1051</v>
+      </c>
+      <c r="D45" s="3">
+        <v>18.68</v>
+      </c>
+      <c r="E45" s="3">
+        <v>63.0473905218956</v>
+      </c>
+      <c r="F45" s="3">
+        <v>1051</v>
+      </c>
+      <c r="G45" s="3">
+        <v>18.85</v>
+      </c>
+      <c r="H45" s="3">
+        <v>24.254</v>
+      </c>
+      <c r="I45" s="3">
+        <v>404.31418</v>
+      </c>
+      <c r="J45" s="3">
+        <v>18.44</v>
+      </c>
+      <c r="K45" s="3">
+        <v>24.254</v>
+      </c>
+      <c r="L45" s="3">
+        <v>404.31418</v>
+      </c>
+      <c r="M45" s="3">
+        <v>18.38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" s="3">
+        <v>63.0473905218956</v>
+      </c>
+      <c r="C46" s="3">
+        <v>1051</v>
+      </c>
+      <c r="D46" s="3">
+        <v>18.68</v>
+      </c>
+      <c r="E46" s="3">
+        <v>63.0473905218956</v>
+      </c>
+      <c r="F46" s="3">
+        <v>1051</v>
+      </c>
+      <c r="G46" s="3">
+        <v>18.85</v>
+      </c>
+      <c r="H46" s="3">
+        <v>24.254</v>
+      </c>
+      <c r="I46" s="3">
+        <v>404.31418</v>
+      </c>
+      <c r="J46" s="3">
+        <v>18.44</v>
+      </c>
+      <c r="K46" s="3">
+        <v>24.254</v>
+      </c>
+      <c r="L46" s="3">
+        <v>404.31418</v>
+      </c>
+      <c r="M46" s="3">
+        <v>18.38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" s="3">
+        <v>63.0473905218956</v>
+      </c>
+      <c r="C47" s="3">
+        <v>1051</v>
+      </c>
+      <c r="D47" s="3">
+        <v>18.68</v>
+      </c>
+      <c r="E47" s="3">
+        <v>63.0473905218956</v>
+      </c>
+      <c r="F47" s="3">
+        <v>1051</v>
+      </c>
+      <c r="G47" s="3">
+        <v>18.85</v>
+      </c>
+      <c r="H47" s="3">
+        <v>24.254</v>
+      </c>
+      <c r="I47" s="3">
+        <v>404.31418</v>
+      </c>
+      <c r="J47" s="3">
+        <v>18.44</v>
+      </c>
+      <c r="K47" s="3">
+        <v>24.254</v>
+      </c>
+      <c r="L47" s="3">
+        <v>404.31418</v>
+      </c>
+      <c r="M47" s="3">
+        <v>18.38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" s="3">
+        <v>63.0473905218956</v>
+      </c>
+      <c r="C48" s="3">
+        <v>1051</v>
+      </c>
+      <c r="D48" s="3">
+        <v>18.68</v>
+      </c>
+      <c r="E48" s="3">
+        <v>63.0473905218956</v>
+      </c>
+      <c r="F48" s="3">
+        <v>1051</v>
+      </c>
+      <c r="G48" s="3">
+        <v>18.85</v>
+      </c>
+      <c r="H48" s="3">
+        <v>24.254</v>
+      </c>
+      <c r="I48" s="3">
+        <v>404.31418</v>
+      </c>
+      <c r="J48" s="3">
+        <v>18.44</v>
+      </c>
+      <c r="K48" s="3">
+        <v>24.254</v>
+      </c>
+      <c r="L48" s="3">
+        <v>404.31418</v>
+      </c>
+      <c r="M48" s="3">
+        <v>18.38</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" s="3">
+        <v>63.0473905218956</v>
+      </c>
+      <c r="C49" s="3">
+        <v>1051</v>
+      </c>
+      <c r="D49" s="3">
+        <v>18.68</v>
+      </c>
+      <c r="E49" s="3">
+        <v>63.0473905218956</v>
+      </c>
+      <c r="F49" s="3">
+        <v>1051</v>
+      </c>
+      <c r="G49" s="3">
+        <v>18.85</v>
+      </c>
+      <c r="H49" s="3">
+        <v>24.254</v>
+      </c>
+      <c r="I49" s="3">
+        <v>404.31418</v>
+      </c>
+      <c r="J49" s="3">
+        <v>18.44</v>
+      </c>
+      <c r="K49" s="3">
+        <v>24.254</v>
+      </c>
+      <c r="L49" s="3">
+        <v>404.31418</v>
+      </c>
+      <c r="M49" s="3">
+        <v>18.38</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50" s="3">
+        <v>63.0473905218956</v>
+      </c>
+      <c r="C50" s="3">
+        <v>1051</v>
+      </c>
+      <c r="D50" s="3">
+        <v>18.68</v>
+      </c>
+      <c r="E50" s="3">
+        <v>63.0473905218956</v>
+      </c>
+      <c r="F50" s="3">
+        <v>1051</v>
+      </c>
+      <c r="G50" s="3">
+        <v>18.85</v>
+      </c>
+      <c r="H50" s="3">
+        <v>24.254</v>
+      </c>
+      <c r="I50" s="3">
+        <v>404.31418</v>
+      </c>
+      <c r="J50" s="3">
+        <v>18.44</v>
+      </c>
+      <c r="K50" s="3">
+        <v>24.254</v>
+      </c>
+      <c r="L50" s="3">
+        <v>404.31418</v>
+      </c>
+      <c r="M50" s="3">
+        <v>18.38</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51" s="3">
+        <v>63.0473905218956</v>
+      </c>
+      <c r="C51" s="3">
+        <v>1051</v>
+      </c>
+      <c r="D51" s="3">
+        <v>18.68</v>
+      </c>
+      <c r="E51" s="3">
+        <v>63.0473905218956</v>
+      </c>
+      <c r="F51" s="3">
+        <v>1051</v>
+      </c>
+      <c r="G51" s="3">
+        <v>18.85</v>
+      </c>
+      <c r="H51" s="3">
+        <v>24.254</v>
+      </c>
+      <c r="I51" s="3">
+        <v>404.31418</v>
+      </c>
+      <c r="J51" s="3">
+        <v>18.44</v>
+      </c>
+      <c r="K51" s="3">
+        <v>24.254</v>
+      </c>
+      <c r="L51" s="3">
+        <v>404.31418</v>
+      </c>
+      <c r="M51" s="3">
+        <v>18.38</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52" s="3">
+        <v>0</v>
+      </c>
+      <c r="C52" s="3">
+        <v>0</v>
+      </c>
+      <c r="D52" s="3">
+        <v>18.68</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>18.85</v>
+      </c>
+      <c r="H52" s="3">
+        <v>48</v>
+      </c>
+      <c r="I52" s="3">
+        <v>800.16</v>
+      </c>
+      <c r="J52" s="3">
+        <v>18.44</v>
+      </c>
+      <c r="K52" s="3">
+        <v>48</v>
+      </c>
+      <c r="L52" s="3">
+        <v>800.16</v>
+      </c>
+      <c r="M52" s="3">
+        <v>18.38</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53" s="3">
+        <v>0</v>
+      </c>
+      <c r="C53" s="3">
+        <v>0</v>
+      </c>
+      <c r="D53" s="3">
+        <v>18.68</v>
+      </c>
+      <c r="E53" s="3">
+        <v>0</v>
+      </c>
+      <c r="F53" s="3">
+        <v>0</v>
+      </c>
+      <c r="G53" s="3">
+        <v>18.85</v>
+      </c>
+      <c r="H53" s="3">
+        <v>48</v>
+      </c>
+      <c r="I53" s="3">
+        <v>800.16</v>
+      </c>
+      <c r="J53" s="3">
+        <v>18.44</v>
+      </c>
+      <c r="K53" s="3">
+        <v>48</v>
+      </c>
+      <c r="L53" s="3">
+        <v>800.16</v>
+      </c>
+      <c r="M53" s="3">
+        <v>18.38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54" s="3">
+        <v>0</v>
+      </c>
+      <c r="C54" s="3">
+        <v>0</v>
+      </c>
+      <c r="D54" s="3">
+        <v>18.68</v>
+      </c>
+      <c r="E54" s="3">
+        <v>0</v>
+      </c>
+      <c r="F54" s="3">
+        <v>0</v>
+      </c>
+      <c r="G54" s="3">
+        <v>18.85</v>
+      </c>
+      <c r="H54" s="3">
+        <v>48</v>
+      </c>
+      <c r="I54" s="3">
+        <v>800.16</v>
+      </c>
+      <c r="J54" s="3">
+        <v>18.44</v>
+      </c>
+      <c r="K54" s="3">
+        <v>48</v>
+      </c>
+      <c r="L54" s="3">
+        <v>800.16</v>
+      </c>
+      <c r="M54" s="3">
+        <v>18.38</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55" s="3">
+        <v>0</v>
+      </c>
+      <c r="C55" s="3">
+        <v>0</v>
+      </c>
+      <c r="D55" s="3">
+        <v>18.68</v>
+      </c>
+      <c r="E55" s="3">
+        <v>0</v>
+      </c>
+      <c r="F55" s="3">
+        <v>0</v>
+      </c>
+      <c r="G55" s="3">
+        <v>18.85</v>
+      </c>
+      <c r="H55" s="3">
+        <v>48</v>
+      </c>
+      <c r="I55" s="3">
+        <v>800.16</v>
+      </c>
+      <c r="J55" s="3">
+        <v>18.44</v>
+      </c>
+      <c r="K55" s="3">
+        <v>48</v>
+      </c>
+      <c r="L55" s="3">
+        <v>800.16</v>
+      </c>
+      <c r="M55" s="3">
+        <v>18.38</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56" s="3">
+        <v>0</v>
+      </c>
+      <c r="C56" s="3">
+        <v>0</v>
+      </c>
+      <c r="D56" s="3">
+        <v>18.68</v>
+      </c>
+      <c r="E56" s="3">
+        <v>0</v>
+      </c>
+      <c r="F56" s="3">
+        <v>0</v>
+      </c>
+      <c r="G56" s="3">
+        <v>18.85</v>
+      </c>
+      <c r="H56" s="3">
+        <v>48</v>
+      </c>
+      <c r="I56" s="3">
+        <v>800.16</v>
+      </c>
+      <c r="J56" s="3">
+        <v>18.44</v>
+      </c>
+      <c r="K56" s="3">
+        <v>48</v>
+      </c>
+      <c r="L56" s="3">
+        <v>800.16</v>
+      </c>
+      <c r="M56" s="3">
+        <v>18.38</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57" s="3">
+        <v>0</v>
+      </c>
+      <c r="C57" s="3">
+        <v>0</v>
+      </c>
+      <c r="D57" s="3">
+        <v>18.68</v>
+      </c>
+      <c r="E57" s="3">
+        <v>0</v>
+      </c>
+      <c r="F57" s="3">
+        <v>0</v>
+      </c>
+      <c r="G57" s="3">
+        <v>18.85</v>
+      </c>
+      <c r="H57" s="3">
+        <v>48</v>
+      </c>
+      <c r="I57" s="3">
+        <v>800.16</v>
+      </c>
+      <c r="J57" s="3">
+        <v>18.44</v>
+      </c>
+      <c r="K57" s="3">
+        <v>48</v>
+      </c>
+      <c r="L57" s="3">
+        <v>800.16</v>
+      </c>
+      <c r="M57" s="3">
+        <v>18.38</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58" s="3">
+        <v>0</v>
+      </c>
+      <c r="C58" s="3">
+        <v>0</v>
+      </c>
+      <c r="D58" s="3">
+        <v>18.68</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>18.85</v>
+      </c>
+      <c r="H58" s="3">
+        <v>48</v>
+      </c>
+      <c r="I58" s="3">
+        <v>800.16</v>
+      </c>
+      <c r="J58" s="3">
+        <v>18.44</v>
+      </c>
+      <c r="K58" s="3">
+        <v>48</v>
+      </c>
+      <c r="L58" s="3">
+        <v>800.16</v>
+      </c>
+      <c r="M58" s="3">
+        <v>18.38</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59" s="3">
+        <v>0</v>
+      </c>
+      <c r="C59" s="3">
+        <v>0</v>
+      </c>
+      <c r="D59" s="3">
+        <v>18.68</v>
+      </c>
+      <c r="E59" s="3">
+        <v>0</v>
+      </c>
+      <c r="F59" s="3">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3">
+        <v>18.85</v>
+      </c>
+      <c r="H59" s="3">
+        <v>48</v>
+      </c>
+      <c r="I59" s="3">
+        <v>800.16</v>
+      </c>
+      <c r="J59" s="3">
+        <v>18.44</v>
+      </c>
+      <c r="K59" s="3">
+        <v>48</v>
+      </c>
+      <c r="L59" s="3">
+        <v>800.16</v>
+      </c>
+      <c r="M59" s="3">
+        <v>18.38</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60" s="3">
+        <v>0</v>
+      </c>
+      <c r="C60" s="3">
+        <v>0</v>
+      </c>
+      <c r="D60" s="3">
+        <v>18.68</v>
+      </c>
+      <c r="E60" s="3">
+        <v>0</v>
+      </c>
+      <c r="F60" s="3">
+        <v>0</v>
+      </c>
+      <c r="G60" s="3">
+        <v>18.85</v>
+      </c>
+      <c r="H60" s="3">
+        <v>48</v>
+      </c>
+      <c r="I60" s="3">
+        <v>800.16</v>
+      </c>
+      <c r="J60" s="3">
+        <v>18.44</v>
+      </c>
+      <c r="K60" s="3">
+        <v>48</v>
+      </c>
+      <c r="L60" s="3">
+        <v>800.16</v>
+      </c>
+      <c r="M60" s="3">
+        <v>18.38</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61" s="3">
+        <v>0</v>
+      </c>
+      <c r="C61" s="3">
+        <v>0</v>
+      </c>
+      <c r="D61" s="3">
+        <v>18.68</v>
+      </c>
+      <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
+        <v>18.85</v>
+      </c>
+      <c r="H61" s="3">
+        <v>48</v>
+      </c>
+      <c r="I61" s="3">
+        <v>800.16</v>
+      </c>
+      <c r="J61" s="3">
+        <v>18.44</v>
+      </c>
+      <c r="K61" s="3">
+        <v>48</v>
+      </c>
+      <c r="L61" s="3">
+        <v>800.16</v>
+      </c>
+      <c r="M61" s="3">
+        <v>18.38</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B62" s="3">
+        <v>0</v>
+      </c>
+      <c r="C62" s="3">
+        <v>0</v>
+      </c>
+      <c r="D62" s="3">
+        <v>18.68</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
+        <v>18.85</v>
+      </c>
+      <c r="H62" s="3">
+        <v>48</v>
+      </c>
+      <c r="I62" s="3">
+        <v>800.16</v>
+      </c>
+      <c r="J62" s="3">
+        <v>18.44</v>
+      </c>
+      <c r="K62" s="3">
+        <v>48</v>
+      </c>
+      <c r="L62" s="3">
+        <v>800.16</v>
+      </c>
+      <c r="M62" s="3">
+        <v>18.38</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="A63" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B63" s="3">
+        <v>0</v>
+      </c>
+      <c r="C63" s="3">
+        <v>0</v>
+      </c>
+      <c r="D63" s="3">
+        <v>18.68</v>
+      </c>
+      <c r="E63" s="3">
+        <v>0</v>
+      </c>
+      <c r="F63" s="3">
+        <v>0</v>
+      </c>
+      <c r="G63" s="3">
+        <v>18.85</v>
+      </c>
+      <c r="H63" s="3">
+        <v>48</v>
+      </c>
+      <c r="I63" s="3">
+        <v>800.16</v>
+      </c>
+      <c r="J63" s="3">
+        <v>18.44</v>
+      </c>
+      <c r="K63" s="3">
+        <v>48</v>
+      </c>
+      <c r="L63" s="3">
+        <v>800.16</v>
+      </c>
+      <c r="M63" s="3">
+        <v>18.38</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="A64" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B64" s="3">
+        <v>0</v>
+      </c>
+      <c r="C64" s="3">
+        <v>0</v>
+      </c>
+      <c r="D64" s="3">
+        <v>18.68</v>
+      </c>
+      <c r="E64" s="3">
+        <v>0</v>
+      </c>
+      <c r="F64" s="3">
+        <v>0</v>
+      </c>
+      <c r="G64" s="3">
+        <v>18.85</v>
+      </c>
+      <c r="H64" s="3">
+        <v>48</v>
+      </c>
+      <c r="I64" s="3">
+        <v>800.16</v>
+      </c>
+      <c r="J64" s="3">
+        <v>18.44</v>
+      </c>
+      <c r="K64" s="3">
+        <v>48</v>
+      </c>
+      <c r="L64" s="3">
+        <v>800.16</v>
+      </c>
+      <c r="M64" s="3">
+        <v>18.38</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
+      <c r="A65" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B65" s="3">
+        <v>0</v>
+      </c>
+      <c r="C65" s="3">
+        <v>0</v>
+      </c>
+      <c r="D65" s="3">
+        <v>18.68</v>
+      </c>
+      <c r="E65" s="3">
+        <v>0</v>
+      </c>
+      <c r="F65" s="3">
+        <v>0</v>
+      </c>
+      <c r="G65" s="3">
+        <v>18.85</v>
+      </c>
+      <c r="H65" s="3">
+        <v>48</v>
+      </c>
+      <c r="I65" s="3">
+        <v>800.16</v>
+      </c>
+      <c r="J65" s="3">
+        <v>18.44</v>
+      </c>
+      <c r="K65" s="3">
+        <v>48</v>
+      </c>
+      <c r="L65" s="3">
+        <v>800.16</v>
+      </c>
+      <c r="M65" s="3">
+        <v>18.38</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
+      <c r="A66" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B66" s="3">
+        <v>0</v>
+      </c>
+      <c r="C66" s="3">
+        <v>0</v>
+      </c>
+      <c r="D66" s="3">
+        <v>18.68</v>
+      </c>
+      <c r="E66" s="3">
+        <v>0</v>
+      </c>
+      <c r="F66" s="3">
+        <v>0</v>
+      </c>
+      <c r="G66" s="3">
+        <v>18.85</v>
+      </c>
+      <c r="H66" s="3">
+        <v>48</v>
+      </c>
+      <c r="I66" s="3">
+        <v>800.16</v>
+      </c>
+      <c r="J66" s="3">
+        <v>18.44</v>
+      </c>
+      <c r="K66" s="3">
+        <v>48</v>
+      </c>
+      <c r="L66" s="3">
+        <v>800.16</v>
+      </c>
+      <c r="M66" s="3">
+        <v>18.38</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
+      <c r="A67" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B67" s="3">
+        <v>0</v>
+      </c>
+      <c r="C67" s="3">
+        <v>0</v>
+      </c>
+      <c r="D67" s="3">
+        <v>18.68</v>
+      </c>
+      <c r="E67" s="3">
+        <v>0</v>
+      </c>
+      <c r="F67" s="3">
+        <v>0</v>
+      </c>
+      <c r="G67" s="3">
+        <v>18.85</v>
+      </c>
+      <c r="H67" s="3">
+        <v>48</v>
+      </c>
+      <c r="I67" s="3">
+        <v>800.16</v>
+      </c>
+      <c r="J67" s="3">
+        <v>18.44</v>
+      </c>
+      <c r="K67" s="3">
+        <v>48</v>
+      </c>
+      <c r="L67" s="3">
+        <v>800.16</v>
+      </c>
+      <c r="M67" s="3">
+        <v>18.38</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
+      <c r="A68" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B68" s="3">
+        <v>0</v>
+      </c>
+      <c r="C68" s="3">
+        <v>0</v>
+      </c>
+      <c r="D68" s="3">
+        <v>18.68</v>
+      </c>
+      <c r="E68" s="3">
+        <v>0</v>
+      </c>
+      <c r="F68" s="3">
+        <v>0</v>
+      </c>
+      <c r="G68" s="3">
+        <v>18.85</v>
+      </c>
+      <c r="H68" s="3">
+        <v>48</v>
+      </c>
+      <c r="I68" s="3">
+        <v>800.16</v>
+      </c>
+      <c r="J68" s="3">
+        <v>18.44</v>
+      </c>
+      <c r="K68" s="3">
+        <v>48</v>
+      </c>
+      <c r="L68" s="3">
+        <v>800.16</v>
+      </c>
+      <c r="M68" s="3">
+        <v>18.38</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
+      <c r="A69" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B69" s="3">
+        <v>0</v>
+      </c>
+      <c r="C69" s="3">
+        <v>0</v>
+      </c>
+      <c r="D69" s="3">
+        <v>18.68</v>
+      </c>
+      <c r="E69" s="3">
+        <v>0</v>
+      </c>
+      <c r="F69" s="3">
+        <v>0</v>
+      </c>
+      <c r="G69" s="3">
+        <v>18.85</v>
+      </c>
+      <c r="H69" s="3">
+        <v>48</v>
+      </c>
+      <c r="I69" s="3">
+        <v>800.16</v>
+      </c>
+      <c r="J69" s="3">
+        <v>18.44</v>
+      </c>
+      <c r="K69" s="3">
+        <v>48</v>
+      </c>
+      <c r="L69" s="3">
+        <v>800.16</v>
+      </c>
+      <c r="M69" s="3">
+        <v>18.38</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
+      <c r="A70" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B70" s="3">
+        <v>0</v>
+      </c>
+      <c r="C70" s="3">
+        <v>0</v>
+      </c>
+      <c r="D70" s="3">
+        <v>18.68</v>
+      </c>
+      <c r="E70" s="3">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3">
+        <v>0</v>
+      </c>
+      <c r="G70" s="3">
+        <v>18.85</v>
+      </c>
+      <c r="H70" s="3">
+        <v>48</v>
+      </c>
+      <c r="I70" s="3">
+        <v>800.16</v>
+      </c>
+      <c r="J70" s="3">
+        <v>18.44</v>
+      </c>
+      <c r="K70" s="3">
+        <v>48</v>
+      </c>
+      <c r="L70" s="3">
+        <v>800.16</v>
+      </c>
+      <c r="M70" s="3">
+        <v>18.38</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
+      <c r="A71" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B71" s="3">
+        <v>0</v>
+      </c>
+      <c r="C71" s="3">
+        <v>0</v>
+      </c>
+      <c r="D71" s="3">
+        <v>18.68</v>
+      </c>
+      <c r="E71" s="3">
+        <v>0</v>
+      </c>
+      <c r="F71" s="3">
+        <v>0</v>
+      </c>
+      <c r="G71" s="3">
+        <v>18.85</v>
+      </c>
+      <c r="H71" s="3">
+        <v>48</v>
+      </c>
+      <c r="I71" s="3">
+        <v>800.16</v>
+      </c>
+      <c r="J71" s="3">
+        <v>18.44</v>
+      </c>
+      <c r="K71" s="3">
+        <v>48</v>
+      </c>
+      <c r="L71" s="3">
+        <v>800.16</v>
+      </c>
+      <c r="M71" s="3">
+        <v>18.38</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
+      <c r="A72" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B72" s="3">
+        <v>0</v>
+      </c>
+      <c r="C72" s="3">
+        <v>0</v>
+      </c>
+      <c r="D72" s="3">
+        <v>18.68</v>
+      </c>
+      <c r="E72" s="3">
+        <v>0</v>
+      </c>
+      <c r="F72" s="3">
+        <v>0</v>
+      </c>
+      <c r="G72" s="3">
+        <v>18.85</v>
+      </c>
+      <c r="H72" s="3">
+        <v>48</v>
+      </c>
+      <c r="I72" s="3">
+        <v>800.16</v>
+      </c>
+      <c r="J72" s="3">
+        <v>18.44</v>
+      </c>
+      <c r="K72" s="3">
+        <v>48</v>
+      </c>
+      <c r="L72" s="3">
+        <v>800.16</v>
+      </c>
+      <c r="M72" s="3">
+        <v>18.38</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
+      <c r="A73" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B73" s="3">
+        <v>0</v>
+      </c>
+      <c r="C73" s="3">
+        <v>0</v>
+      </c>
+      <c r="D73" s="3">
+        <v>18.68</v>
+      </c>
+      <c r="E73" s="3">
+        <v>0</v>
+      </c>
+      <c r="F73" s="3">
+        <v>0</v>
+      </c>
+      <c r="G73" s="3">
+        <v>18.85</v>
+      </c>
+      <c r="H73" s="3">
+        <v>48</v>
+      </c>
+      <c r="I73" s="3">
+        <v>800.16</v>
+      </c>
+      <c r="J73" s="3">
+        <v>18.44</v>
+      </c>
+      <c r="K73" s="3">
+        <v>48</v>
+      </c>
+      <c r="L73" s="3">
+        <v>800.16</v>
+      </c>
+      <c r="M73" s="3">
+        <v>18.38</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
+      <c r="A74" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B74" s="3">
+        <v>0</v>
+      </c>
+      <c r="C74" s="3">
+        <v>0</v>
+      </c>
+      <c r="D74" s="3">
+        <v>18.68</v>
+      </c>
+      <c r="E74" s="3">
+        <v>0</v>
+      </c>
+      <c r="F74" s="3">
+        <v>0</v>
+      </c>
+      <c r="G74" s="3">
+        <v>18.85</v>
+      </c>
+      <c r="H74" s="3">
+        <v>48</v>
+      </c>
+      <c r="I74" s="3">
+        <v>800.16</v>
+      </c>
+      <c r="J74" s="3">
+        <v>18.44</v>
+      </c>
+      <c r="K74" s="3">
+        <v>48</v>
+      </c>
+      <c r="L74" s="3">
+        <v>800.16</v>
+      </c>
+      <c r="M74" s="3">
+        <v>18.38</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
+      <c r="A75" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B75" s="3">
+        <v>0</v>
+      </c>
+      <c r="C75" s="3">
+        <v>0</v>
+      </c>
+      <c r="D75" s="3">
+        <v>18.68</v>
+      </c>
+      <c r="E75" s="3">
+        <v>0</v>
+      </c>
+      <c r="F75" s="3">
+        <v>0</v>
+      </c>
+      <c r="G75" s="3">
+        <v>18.85</v>
+      </c>
+      <c r="H75" s="3">
+        <v>48</v>
+      </c>
+      <c r="I75" s="3">
+        <v>800.16</v>
+      </c>
+      <c r="J75" s="3">
+        <v>18.44</v>
+      </c>
+      <c r="K75" s="3">
+        <v>48</v>
+      </c>
+      <c r="L75" s="3">
+        <v>800.16</v>
+      </c>
+      <c r="M75" s="3">
+        <v>18.38</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
+      <c r="A76" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B76" s="3">
+        <v>0</v>
+      </c>
+      <c r="C76" s="3">
+        <v>0</v>
+      </c>
+      <c r="D76" s="3">
+        <v>18.68</v>
+      </c>
+      <c r="E76" s="3">
+        <v>0</v>
+      </c>
+      <c r="F76" s="3">
+        <v>0</v>
+      </c>
+      <c r="G76" s="3">
+        <v>18.85</v>
+      </c>
+      <c r="H76" s="3">
+        <v>48</v>
+      </c>
+      <c r="I76" s="3">
+        <v>800.16</v>
+      </c>
+      <c r="J76" s="3">
+        <v>18.44</v>
+      </c>
+      <c r="K76" s="3">
+        <v>48</v>
+      </c>
+      <c r="L76" s="3">
+        <v>800.16</v>
+      </c>
+      <c r="M76" s="3">
+        <v>18.38</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
+      <c r="A77" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B77" s="3">
+        <v>0</v>
+      </c>
+      <c r="C77" s="3">
+        <v>0</v>
+      </c>
+      <c r="D77" s="3">
+        <v>18.68</v>
+      </c>
+      <c r="E77" s="3">
+        <v>0</v>
+      </c>
+      <c r="F77" s="3">
+        <v>0</v>
+      </c>
+      <c r="G77" s="3">
+        <v>18.85</v>
+      </c>
+      <c r="H77" s="3">
+        <v>48</v>
+      </c>
+      <c r="I77" s="3">
+        <v>800.16</v>
+      </c>
+      <c r="J77" s="3">
+        <v>18.44</v>
+      </c>
+      <c r="K77" s="3">
+        <v>48</v>
+      </c>
+      <c r="L77" s="3">
+        <v>800.16</v>
+      </c>
+      <c r="M77" s="3">
+        <v>18.38</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
+      <c r="A78" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B78" s="3">
+        <v>0</v>
+      </c>
+      <c r="C78" s="3">
+        <v>0</v>
+      </c>
+      <c r="D78" s="3">
+        <v>18.68</v>
+      </c>
+      <c r="E78" s="3">
+        <v>0</v>
+      </c>
+      <c r="F78" s="3">
+        <v>0</v>
+      </c>
+      <c r="G78" s="3">
+        <v>18.85</v>
+      </c>
+      <c r="H78" s="3">
+        <v>48</v>
+      </c>
+      <c r="I78" s="3">
+        <v>800.16</v>
+      </c>
+      <c r="J78" s="3">
+        <v>18.44</v>
+      </c>
+      <c r="K78" s="3">
+        <v>48</v>
+      </c>
+      <c r="L78" s="3">
+        <v>800.16</v>
+      </c>
+      <c r="M78" s="3">
+        <v>18.38</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
+      <c r="A79" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B79" s="3">
+        <v>0</v>
+      </c>
+      <c r="C79" s="3">
+        <v>0</v>
+      </c>
+      <c r="D79" s="3">
+        <v>18.68</v>
+      </c>
+      <c r="E79" s="3">
+        <v>0</v>
+      </c>
+      <c r="F79" s="3">
+        <v>0</v>
+      </c>
+      <c r="G79" s="3">
+        <v>18.85</v>
+      </c>
+      <c r="H79" s="3">
+        <v>48</v>
+      </c>
+      <c r="I79" s="3">
+        <v>800.16</v>
+      </c>
+      <c r="J79" s="3">
+        <v>18.44</v>
+      </c>
+      <c r="K79" s="3">
+        <v>48</v>
+      </c>
+      <c r="L79" s="3">
+        <v>800.16</v>
+      </c>
+      <c r="M79" s="3">
+        <v>18.38</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
+      <c r="A80" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B80" s="3">
+        <v>0</v>
+      </c>
+      <c r="C80" s="3">
+        <v>0</v>
+      </c>
+      <c r="D80" s="3">
+        <v>18.68</v>
+      </c>
+      <c r="E80" s="3">
+        <v>0</v>
+      </c>
+      <c r="F80" s="3">
+        <v>0</v>
+      </c>
+      <c r="G80" s="3">
+        <v>18.85</v>
+      </c>
+      <c r="H80" s="3">
+        <v>48</v>
+      </c>
+      <c r="I80" s="3">
+        <v>800.16</v>
+      </c>
+      <c r="J80" s="3">
+        <v>18.44</v>
+      </c>
+      <c r="K80" s="3">
+        <v>48</v>
+      </c>
+      <c r="L80" s="3">
+        <v>800.16</v>
+      </c>
+      <c r="M80" s="3">
+        <v>18.38</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
+      <c r="A81" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B81" s="3">
+        <v>0</v>
+      </c>
+      <c r="C81" s="3">
+        <v>0</v>
+      </c>
+      <c r="D81" s="3">
+        <v>18.68</v>
+      </c>
+      <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
+        <v>18.85</v>
+      </c>
+      <c r="H81" s="3">
+        <v>48</v>
+      </c>
+      <c r="I81" s="3">
+        <v>800.16</v>
+      </c>
+      <c r="J81" s="3">
+        <v>18.44</v>
+      </c>
+      <c r="K81" s="3">
+        <v>48</v>
+      </c>
+      <c r="L81" s="3">
+        <v>800.16</v>
+      </c>
+      <c r="M81" s="3">
+        <v>18.38</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
+      <c r="A82" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B82" s="3">
+        <v>0</v>
+      </c>
+      <c r="C82" s="3">
+        <v>0</v>
+      </c>
+      <c r="D82" s="3">
+        <v>18.68</v>
+      </c>
+      <c r="E82" s="3">
+        <v>0</v>
+      </c>
+      <c r="F82" s="3">
+        <v>0</v>
+      </c>
+      <c r="G82" s="3">
+        <v>18.85</v>
+      </c>
+      <c r="H82" s="3">
+        <v>48</v>
+      </c>
+      <c r="I82" s="3">
+        <v>800.16</v>
+      </c>
+      <c r="J82" s="3">
+        <v>18.44</v>
+      </c>
+      <c r="K82" s="3">
+        <v>48</v>
+      </c>
+      <c r="L82" s="3">
+        <v>800.16</v>
+      </c>
+      <c r="M82" s="3">
+        <v>18.38</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
+      <c r="A83" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B83" s="3">
+        <v>0</v>
+      </c>
+      <c r="C83" s="3">
+        <v>0</v>
+      </c>
+      <c r="D83" s="3">
+        <v>18.68</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
+        <v>18.85</v>
+      </c>
+      <c r="H83" s="3">
+        <v>48</v>
+      </c>
+      <c r="I83" s="3">
+        <v>800.16</v>
+      </c>
+      <c r="J83" s="3">
+        <v>18.44</v>
+      </c>
+      <c r="K83" s="3">
+        <v>48</v>
+      </c>
+      <c r="L83" s="3">
+        <v>800.16</v>
+      </c>
+      <c r="M83" s="3">
+        <v>18.38</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
+      <c r="A84" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B84" s="3">
+        <v>0</v>
+      </c>
+      <c r="C84" s="3">
+        <v>0</v>
+      </c>
+      <c r="D84" s="3">
+        <v>18.68</v>
+      </c>
+      <c r="E84" s="3">
+        <v>0</v>
+      </c>
+      <c r="F84" s="3">
+        <v>0</v>
+      </c>
+      <c r="G84" s="3">
+        <v>18.85</v>
+      </c>
+      <c r="H84" s="3">
+        <v>48</v>
+      </c>
+      <c r="I84" s="3">
+        <v>800.16</v>
+      </c>
+      <c r="J84" s="3">
+        <v>18.44</v>
+      </c>
+      <c r="K84" s="3">
+        <v>48</v>
+      </c>
+      <c r="L84" s="3">
+        <v>800.16</v>
+      </c>
+      <c r="M84" s="3">
+        <v>18.38</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
+      <c r="A85" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B85" s="3">
+        <v>0</v>
+      </c>
+      <c r="C85" s="3">
+        <v>0</v>
+      </c>
+      <c r="D85" s="3">
+        <v>18.68</v>
+      </c>
+      <c r="E85" s="3">
+        <v>0</v>
+      </c>
+      <c r="F85" s="3">
+        <v>0</v>
+      </c>
+      <c r="G85" s="3">
+        <v>18.85</v>
+      </c>
+      <c r="H85" s="3">
+        <v>48</v>
+      </c>
+      <c r="I85" s="3">
+        <v>800.16</v>
+      </c>
+      <c r="J85" s="3">
+        <v>18.44</v>
+      </c>
+      <c r="K85" s="3">
+        <v>48</v>
+      </c>
+      <c r="L85" s="3">
+        <v>800.16</v>
+      </c>
+      <c r="M85" s="3">
+        <v>18.38</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
+      <c r="A86" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B86" s="3">
+        <v>0</v>
+      </c>
+      <c r="C86" s="3">
+        <v>0</v>
+      </c>
+      <c r="D86" s="3">
+        <v>18.68</v>
+      </c>
+      <c r="E86" s="3">
+        <v>0</v>
+      </c>
+      <c r="F86" s="3">
+        <v>0</v>
+      </c>
+      <c r="G86" s="3">
+        <v>18.85</v>
+      </c>
+      <c r="H86" s="3">
+        <v>48</v>
+      </c>
+      <c r="I86" s="3">
+        <v>800.16</v>
+      </c>
+      <c r="J86" s="3">
+        <v>18.44</v>
+      </c>
+      <c r="K86" s="3">
+        <v>48</v>
+      </c>
+      <c r="L86" s="3">
+        <v>800.16</v>
+      </c>
+      <c r="M86" s="3">
+        <v>18.38</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
+      <c r="A87" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B87" s="3">
+        <v>0</v>
+      </c>
+      <c r="C87" s="3">
+        <v>0</v>
+      </c>
+      <c r="D87" s="3">
+        <v>18.68</v>
+      </c>
+      <c r="E87" s="3">
+        <v>0</v>
+      </c>
+      <c r="F87" s="3">
+        <v>0</v>
+      </c>
+      <c r="G87" s="3">
+        <v>18.85</v>
+      </c>
+      <c r="H87" s="3">
+        <v>48</v>
+      </c>
+      <c r="I87" s="3">
+        <v>800.16</v>
+      </c>
+      <c r="J87" s="3">
+        <v>18.44</v>
+      </c>
+      <c r="K87" s="3">
+        <v>48</v>
+      </c>
+      <c r="L87" s="3">
+        <v>800.16</v>
+      </c>
+      <c r="M87" s="3">
+        <v>18.38</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
+      <c r="A88" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B88" s="3">
+        <v>0</v>
+      </c>
+      <c r="C88" s="3">
+        <v>0</v>
+      </c>
+      <c r="D88" s="3">
+        <v>18.68</v>
+      </c>
+      <c r="E88" s="3">
+        <v>0</v>
+      </c>
+      <c r="F88" s="3">
+        <v>0</v>
+      </c>
+      <c r="G88" s="3">
+        <v>18.85</v>
+      </c>
+      <c r="H88" s="3">
+        <v>48</v>
+      </c>
+      <c r="I88" s="3">
+        <v>800.16</v>
+      </c>
+      <c r="J88" s="3">
+        <v>18.44</v>
+      </c>
+      <c r="K88" s="3">
+        <v>48</v>
+      </c>
+      <c r="L88" s="3">
+        <v>800.16</v>
+      </c>
+      <c r="M88" s="3">
+        <v>18.38</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
+      <c r="A89" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B89" s="3">
+        <v>0</v>
+      </c>
+      <c r="C89" s="3">
+        <v>0</v>
+      </c>
+      <c r="D89" s="3">
+        <v>18.68</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
+        <v>18.85</v>
+      </c>
+      <c r="H89" s="3">
+        <v>48</v>
+      </c>
+      <c r="I89" s="3">
+        <v>800.16</v>
+      </c>
+      <c r="J89" s="3">
+        <v>18.44</v>
+      </c>
+      <c r="K89" s="3">
+        <v>48</v>
+      </c>
+      <c r="L89" s="3">
+        <v>800.16</v>
+      </c>
+      <c r="M89" s="3">
+        <v>18.38</v>
       </c>
     </row>
   </sheetData>
